--- a/Personality Prediction - Analyze/Dataset/Dataset/chamndod/dataset_from_mypersona_bahasa.xlsx
+++ b/Personality Prediction - Analyze/Dataset/Dataset/chamndod/dataset_from_mypersona_bahasa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t xml:space="preserve"> Richard Ja</t>
   </si>
@@ -229,13 +229,259 @@
   </si>
   <si>
     <t>status_update</t>
+  </si>
+  <si>
+    <t>Henry Prasetio</t>
+  </si>
+  <si>
+    <t>Oscar Edward</t>
+  </si>
+  <si>
+    <t>Qaul Siregar</t>
+  </si>
+  <si>
+    <t>Fajar Jauhari</t>
+  </si>
+  <si>
+    <t>Abimanyu Anggito Pramukti</t>
+  </si>
+  <si>
+    <t>Rizky Oktafiani</t>
+  </si>
+  <si>
+    <t>Yusuf Fathony</t>
+  </si>
+  <si>
+    <t>Arifin Tan</t>
+  </si>
+  <si>
+    <t>Jonathan Ryd</t>
+  </si>
+  <si>
+    <t>Anton Hartanto</t>
+  </si>
+  <si>
+    <t>Nicholas Franko</t>
+  </si>
+  <si>
+    <t>Shandy Phodiansa</t>
+  </si>
+  <si>
+    <t>Albert CL</t>
+  </si>
+  <si>
+    <t>Jeffryanto Wijaya</t>
+  </si>
+  <si>
+    <t>Ahmad Fahmi Taufik</t>
+  </si>
+  <si>
+    <t>Arya Dharma</t>
+  </si>
+  <si>
+    <t>Tesya Febby Lestari</t>
+  </si>
+  <si>
+    <t>Andika Kandrianto</t>
+  </si>
+  <si>
+    <t>Fransiska S</t>
+  </si>
+  <si>
+    <t>Harve Doank</t>
+  </si>
+  <si>
+    <t>Sri Andria Fransiska</t>
+  </si>
+  <si>
+    <t>Dhiva Andika Sembiring</t>
+  </si>
+  <si>
+    <t>Triladias Puteri</t>
+  </si>
+  <si>
+    <t>Mohammad Afif</t>
+  </si>
+  <si>
+    <t>Rizki Gunawan</t>
+  </si>
+  <si>
+    <t>Vincent Fernandes</t>
+  </si>
+  <si>
+    <t>Felicia Shantio</t>
+  </si>
+  <si>
+    <t>Aldrian Kwan</t>
+  </si>
+  <si>
+    <t>Vito Christian</t>
+  </si>
+  <si>
+    <t>Bellatasya Unrica</t>
+  </si>
+  <si>
+    <t>Daniel Stefhanus</t>
+  </si>
+  <si>
+    <t>Rafid Chairullah</t>
+  </si>
+  <si>
+    <t>Randy Rachmadi</t>
+  </si>
+  <si>
+    <t>Amadeus Xin</t>
+  </si>
+  <si>
+    <t>Derwin Suhartono</t>
+  </si>
+  <si>
+    <t>Adeliana Yuwono</t>
+  </si>
+  <si>
+    <t>Bran Don</t>
+  </si>
+  <si>
+    <t>Samuel Halim</t>
+  </si>
+  <si>
+    <t>Filbert Invoker</t>
+  </si>
+  <si>
+    <t>Brian Haessel</t>
+  </si>
+  <si>
+    <t>Munif Faisol Abdul Rahman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamisama Suzu derp face v 13 April 2014 tolong minta informasi dong judul lagu yang waktu si Ricci ke diskotik lalu bunuh orang pakai semprotan sianida itu ada lagu disco nya ada yanhg tahu judulnya apa For those who are wondering this is Misa 2 0 has her own page on Facebook Official ENOZ banner not turn off your speaker Yeah sure A good tip Half naked batman with batman shorts drinking something while rollerskating Your argument is invalid But Doesn't your phone ring or something DAT LEGS Lucky panda The first one is actually kinda cool Leopardwoman maybe Teach me master Still ugly Where dafuq is his head in pic 2 Don't cry because it's over Smile because it happened Dr Seuss At SMP 45 for MGMP At SMP 45 for MGMP teman2 cb copy kode ini dan paste di google search sqrt cos x cos 200 x sqrt abs x 0 7 4 x x 0 01 sqrt 9 x 2 sqrt 9 x 2 from 4 5 to 4 5 silahkan lihat hasil nya 9gag Everything is okay in the end If it's not okay then it's not the end aLoNe SaMa 4 11 11 Just an usual dinner with friends at Kafe 12 Don't expect things to happen It's better to feel surprised than to feel disappointed aLoNe SaMa Deal with what I ve dealt with feel what I ve felt survive what I've survived and overcome what I overcame then you can judge me aLoNe SaMa I know life is not easy but this f ing ridiculous aLoNe SaMa It's not hard to find the truth What is hard is not to run away from it once you have found it aLoNe SaMa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rip indognesia gaming Ngok2 Happy CNY bagi not angka Nidji Hapus aku dong yang baikk yang baik Freak Nigga aw shit nigga Hugo well fuck you biatch Blood lad kenapa love is such a sweet illusion yang bosen main pokemon sendiri pokemmo eu pokemon Online happy happy happy cresent friend di FB makin lama makin gajelas 3 biatch you're fabulous guren nomor yumiya full itu Cuma diulang 4x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individualisme tak terkekang ala Amerika Serikat yang tidak meng gratiskan perawatan kesehatan ataupun pen didikan tinggi Kekayaan mentereng dan ke rusakan lingkungan ala Cina modern Kesulitan ekonomi dan ketegangan internal ala Eropa Perang narkotik ala Meksiko nonton apa pun katanya tetap MU di hati Ada yang tahu tidak MU lawan chelsea kapan Gigi nya offside pipinya kayak landasan pesawat Siapakah itu Wkwkwk Akhirnya Indonesia menang juga 2 1 thailand YESSS Wah mantap kalipun PLN ini Katanya tidak da lagi mati lampu Aku benci sama semua orang Indonesia 6 0 laos Menanggg telakk Kenapa kenapa semua orang statusnya tentang cinta Hahahaha Goool Indonesia 5 1 malaysia indonesia menang Gooool Indonesia 4 1 malaysia AYOO INDONESIA Bkn maksudku untuk seperti itu Kuskus Setiap kali melihat wajahmu rasanya ingin meludahi mukamu Wkwkwkwk MU 7 1 Blackburn Menang telak Maafkan aku yang telah menyakiti hatimu bukan maksudku untuk melukaimu You always make me smile MU menangggg MU 2 0 Wigan Babak pertama MU 1 0 WIGAN MU VS WIGAN Yesss Indonesia menang Ayolah Baru kyak begitu saja sudah grogi Aduh Bodoh kali pun fabregas Gara2 dia jadi pinalti kan mau motong lembu Go to berastagi di wajir Semoga banyak di kFC walkot Ya allah Mudahkan lah aku dalam mengadapi ujian besok if i wrong talk to me Hari ini hari yang paling tidak menyenangkan Waduh Gk bsa nonton bola Dsr adek jelek Mantaaaap MU menang Bravo di dome Otw to medan Widih Macet banget ini di jalan mau ke padang panjang Otw to bukit tinggi Hemmmm Untuk semuanya terima kasih kenapa Semoga qaul menjadi orang yang lebih baik dan menjadi kebanggaan kedua orang tua Salut buat PLN Disitu mau buka puasa di situ pulak mati lampu Nunggu kakak keshia pulng kuliah di kfc petronas Waduh Masuk 8 16 Wuih cantiknya cewek bandung ini jogja I am coming wkwkwkwkwkwkwk Ya allah Berikanlah kekuatan dan kemudahan saudara2 kita yang kelaparan di NTT akhirnya hp ku betul juga wkwkwkwkwkwkwk Mw shalat tapi tidak ada sarung macam mna ini Dlm perjalanan rantau prapat Aku ini binatang jalan dalam perjalanan ke neraka Aghhhhhhh Kenapa harus kalah You're beautiful Mati lampu pulak Padahal mau belajar mandarin Kayaknya mamaku tidak pernah terlambat byr listrik lah kok seperti ini pelayananmu PLN Don't cry Kubuka facebook kulihat statusku tidak ada yang komen Kalok kayak begini terus apa kata dunia parah kali imitasi jadi orang Ma pergi ayo Suka mu lah Kelas belum buka tidak ada teman Lengkap lah penderitaanku kamu sudah banci kreak pula lagi Huhhh dtng kecepatan jadi tidak ada teman Why You don't care me Kesiannya adek ku 2 hari di opname cepat sembuh iya ca Mau makan2 It's boogie time Laper Makan burung goreng mantap Makan burung goreng mantap Pulang pulang mati lampu cape deh Betapa senangnya punya sister You give me support Jangan KREAK kali lah jadi orang Bosannya menunggu Main facebook pakai HP orang tidak punya modal WADUH Ada raksasa di depan ku KABUR Lg jalan2 ini da yG Mau iKut g Tp jalan2 antar vla tertawa tertawa tertawa Makan bubur dan ketoprak mantap Mati lampu Education is war Akhirnya GILA les pagi main FB Aduh abangku sakit Duh abangku sakit Pengen makan pempek selingkuh itu indah Susah kali ujiannya dari planet mananya yang buat soal ini Ujian ujian ujiaaaaaan lagiiiiiii mau ujian hari senin matila aku ini ada ujian mandarin pula aduuuuuuuuuuuuuuuuuuuuuuuuuuuu Yo gabba gabba Makasih untuk semua yang ngucapin di tunggu hadiahnya kenapa hehehehe Aku haus Woy jangan makan di depanku lah Aku jadi mau ini Laper Aduh Do you want to be my girlfriend Please accept me Hari ini ujian fisika Doain kenapa woi Gg Cepatlah Cepatlah sudah tidak tahan ini lagi di mdn mau plg kemedan Lg di jogja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shapenya masya allah 3 tertawa dulu lah Ada makna dibalik semua pertanda Fuck you jar just fuck you lawakan jaman smp Hidupkan lagi mimpi mimpi cita cita yang lama kupendam sendiri Ironically that answers everything and I hope you're the one I share my life with HOLY SHIT mabuk kakak boooommmmmmmmm Write something </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy New Year 2017 Easy peasy Purwokerto liburan pantai Artruckstic artistic truck It's where my demons hide demons imaginedragons Setiap jalan ke tempat wisata pasti selalu ditanyain hal yang sama Di Jakarta ada tempat kayak begini tidak Jogja liburan murni damai Selamat Datang 2016 Hilangkan sejenak masalah dalam pikiranmu Nikmatilah hidupmu liburan puncak it binus Pengalaman yang pahit akan menjadi hal yang manis untuk diceritakan Fighting for your live reagge bobmarley Anak jaman sekarang ada yang kesusahan bahkan difoto bukannya dibantuin Selamat Idul Adha 1436 H iduladha 1436h Indonesia bukan untuk diakui tapi untuk diperjuangkan Merdeka Hello Path myfirstPost Hello Instagram myfirstPost Hello Facebook myfirstPost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eighttwenty hm can i just asdfghjkl i know that i shouldn't do that how crazy i am THE MEANING OF LIFE HD Indonesian Subtitle demiapa abah ngeupload foto pke facebook anaknya lupa di logout kaaahhhh Homesick tertawa FINISH Apa yang Anda pikirkan tertawa sengakak ngakaknya maybe you could changes me give up astagfirullah bungas banar pian ini cocok sayang kawan ulun tegila gila banar lawan pian munafik lah ahay 3 Makasih yang sudah ngucapin Maaf tidak bisa balas satu satu yaaa D Makasih yang sudah ngucapin Maaf tidak bisa balas satu satu yaaaaa D Aku benci rambutku yang sekarang minta efek lagi kah anti tertawa nanti lah menunggu di sana tenang p sudah ku bilang kamu apa lagi sih anak sabar kuburannya lebar anak science itu asyik ramah riang dan menyenangkan tidak kaku dan tidak kalah sama anak social Big bang big bang we're back again one more time sayang No way nomor way neomu swipge tto nami dwae m sekarang sudah tanggal berapa inspirasi belum dapat bunuh aku mamaaaa T T Sekira apaa behamukan di facebook cba lngsng behdpan plng betamparan He he bonjour boomerang m Karena aku bukan robot jangan pernah memarahiku ketika nilaiku anjlok slahkan waktu yang diberikan sangat singkat jaringannya babsssssss ada apa lagi nahh Resiko gamers lalala mendadak lab komp ini menjadi panas mati sayang gin kam sana aahhahahaha Moon maaf lahir dan batin teman teman m bedanya SMA Banua sma SMA GIBS apadehh heyaaaa kampret sekampret kampretnya kampret yang ini lebih kampret drpda yang paling kampret dasar kampret terima kasihh sudah memberikan kenangan yang indah Alhamdulillah yaAllah apa sih ikut2 cari ciri khas sendiri lahh jangan ikut2 yang diikutin jadi risih begini sih baby you light up my world like nomor body else wish me luck iya Allah bismillah iya Allah o tak selamanya aku tersenyun dan tertawa karena aku bahagia jangan lagi lagi kamu membuat galau lau lau karena dirimu mu yang tak menentuu tuu tuuuuuu depan baik belakangnya nauzubillah busukk Ha Ha manusiaa manusiaa RT di lailatlr Tuhan Bisakah aku sekuat keke Tuhan Apakah msih ada sahabat2 seperti shbt2 keke Tuhan msih adakah di ULYAULYAAA RT di WIWAAAY RT di syifaaayuniar ''Aku ingin tahu setelah aku tidak ada nanti bagaimana aku di kenang'' SKUT UN terakhir dilema antara pasrah semangat 04 001 018 7 insyaAllah bisa o b Aaaaa RT di omgugel Yang mau di follow mana suaranya kamu kira saya bego tidak deh gakkk HAHA di Alfacano di HarryPotterIndo HPIMop HPIfolback Slytherin rzkkyoktvia ravenclaw terima kasih kakak Cakka pcar Draco tunangan Cedric Suami HAHAHAHAA membuat sesuatu yang biasa mnjadi luar biasa D Stalker B bodohnya aku ternyata aku senyum senyum tak menentu tak sadar diriku ternyata saya sedang melamunkan dirimu mengapa kamu selalu saja kamu penuhi otakku krna kamu slalu sja kamu menjajah hatiku kamu kamu kamu lagi oh tuhan tolonglah cant'stop thingking about you stop talking about you b GOBLOK TAI MAMEH ANJING BABI YG MAKE FB KU TADI KETABRAK HAHA IBLIS JUA mari kita memulai main PB lagi asekkk kka i miss you so much lafyu 3 hahahaa goodluck my brother suksess yang bner yang smangat main basketnya doa CL's untukmuu p lafyu besok sudah berangkat o hwahh malam minggu suram x x HAHA bersabarlah NHADIA PUTRI INDRI RIANTINA lama tidak main Pottermore sekali main cengo lupa caranya HAHAA siapa yang kada senang hati HAHAHA lagi bm parah kalau ada klakuanku yang tidak berkenan mhon dimaklumi ii jadi tidak PD aku x x adohh adohh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asik iya speechnya Mudah2an segala yang baik yang dia mau bisa terwujud Science 3 years ago Woohohoho Aditya Gandhi Pratama mainin ini D'mitry Adam N sekalian Antania Shinta Yuwono Nurul Novianti Wijaya hai penggemar kecoa 8 years ago 4 years ago wandering in Frankfurt am Main Indonesia ada karena keberagaman Aditya Gandhi Pratama sepeda2an macam begini ini asik buat ngajarin Sebelum naik minimoto D Uuuuhh Mia Nur Ikhsanti Antania Shinta Yuwono ini pembalap motoGP beneran Aditya Gandhi Pratama Aditya Gandhi Pratama Antania Shinta Yuwono look how beautiful is this Emmmh Wat Ada yang tidak bisa lihat situasi adem Adenie Abubakar Alaydrus Rosita Evillya dan kawan2 di manapun berada khususnya di Berlin hati2 Semoga kejadian buruk tidak menimpa 4 years ago Ooh how I miss this time Stress bisa jadi bahan bakar untuk kemajuan kita Hoahahaha 3 years ago Beautiful place beautiful scenery Beautiful story First blue hour after very long time Now I remember why I love it Tempat ini kapan dibangun Tau tahu sudah jadi Today's snapshot Got the chance to get this place during blue hour Carbon fibeeerr OV Magnificent decoration by di 4sdecor High speed turning stoppie The redaksi smoke Wawan's signature Wawan Tembong ready Wawan Tembong asean freestyle champion ready to go Cool beautiful place to hold your events Nice building in Alam Sutra decorated by di 4sdecor Explore What a place Lama tidak motret blue hour Dulu kalau bosen sedikit sore2 keluar untuk sekedar motret apapun dengan background langit seperti ini Kok sekarang susah iya Aditya Gandhi Pratama Ini orang line nya asik benar sudah apal banget kayaknya dia sama trek Wedding Decoration by di 4sdecor Chakra a wedding hall found at adik Breeze BSD is one fine lace to hold your wedding In between Alhamdulillah adik2 dan warga semua antusias dengan upacara dan lomba lomba yang ada Terbukti anak anak kecil pun bisa menjadi petugas upacara dengan persiapan yang minim Lomba dilanjut hari minggu tanggaal 21 Agustus 2016 Teamwork at it's finest Anak2 sedang bermain di lapangan sebuah sekolah di Jakarta Barat Yap lapangan sekolah Awkward Hahaha Good morning Pitstop by Yamaha Racing Warna warni Nikmati indahnya 2 years ago Dari jendela kamar kos Good morning from indonesia Rumah ada empangnya Empang ada rumahnya Di daerah ini tiap rumah rata rata ada satu empang dan satu petak sawah Ini desa yang indah dan sebaiknya terus begini Rumah yang asri dan sederhana Nyaman selalu ada makanan D sebelah sawah sebelah empang Tidur ditemani suara kodok dan jangkrik Jalan setapaknya sudah disemen Tapi pemandangan disekitar tetep menyegarkan pikiran adem dan seger udaranya Something I rarely see Adegan film komedi apa beneran iya Totalitas Lha kok begini Ada yang pernah ngusir diancam mau dibunuh itu sudah biasa Semoga semakin banyak yang tergerak Adenie Abubakar Alaydrus 5 tahun yang lalu hahaha Usaha kayak begini dan orang yang nonton kadang responnya Gitu saja masa susah sih bikinnya D D Do kakean cangkem Ada ada saja orang berulah Padahal dia keren nyanyinya Lensa mainan lensa pertama kali beli Mulai ngerasain tajemnya motret pakai DSLR mulai seneng mainan depth of field sempit Sekarang waktunya move on Frankfurt am Main Kota dimana ada gedung gedung tinggi di jerman Setelah berkeliling akhirnya dapat spot foto yang lumayan Memori beberapa tahun yang lalu Uang memang tidak bisa membeli segalanya Aditya Gandhi Pratama ini asik sih hahaha Awal coba coba HDR subuh2 dari jendela kamar Dresden 4 years ago Nemu sisa foto yang belum diupload di folder IIMS 2016 Romantic candle and decor by di 4sdecor Who don't want to have such a wedding place like this Art of welding Let's have dinner Decorations by di 4sdecor Ducati Scrambler IIMS 2016 This gonna be a long night di 4sdecor decorated room This will stay long enough in our memory Long table decorated by di 4sdecor IIMS 2016 Pahlawan KSM Nyiur booth at Islamic Development Bank 41st annual meeting Tomorrow will be the last day Come and visit us if you have a free time di ksmnyiur Bisa panjaang hahahaha Drunk and Bike Much more interesting than drunk and drive Aditya Gandhi Pratama enak iya jalanannya Sawarna Beach salah satu tujuan wisata yang sangat menarik cuma aksesnya yang kebetulan sedang diutakatik jadi agak ribet waktu kesana Tapi tetap recommended Perjalanan pulang dari pantai sawarna kebetulan pas sunset pas di atas gunung Hoo 4 years ago Aditya Gandhi Pratama modal D Aditya Gandhi Pratama level ginian juga nyetut D'mitry Adam N kamu cocok ini begini ayo kapan2 saya nyetir kamu begini yak cc Antania Shinta Yuwono Aditya Gandhi Pratama ada senggolannya juga Ok so this ship ships ships to customer who waits for the shpping of their ship Sederhana tapi ramai euuuyy Aditya Gandhi Pratama Danielo Petrucci Who's that hahahahaha Seru lihat yang pada tertawa hahahaha Aditya Gandhi Pratama ini simpel ini Bisa diterapkan tidak iya hahaha Oke dia makin tambah saja variasi skillnya Aditya Gandhi Pratama De Breeze BSD One of many interesting places in South Tangerang One fine moment shared Ini lucu Banget Pamulang ini Antania Shinta Yuwono Kesana sih kapan2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orang indonesia pasti like status ini O teman yang brengsek itu bukan teman yang harus kita jauhi melainkan harus kita rangkul dan beri pengarahan mnuju jurang trdekat misalnya Teman sejati bukanlah yang bisa membuat semua masalahmu menghilang tapi yang tidak akan menghilang saat kamu memiliki masalah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i wonder if it's horoscope who framed as wikipedia but I like what it says Demi kakigori gratis 1 Cyber World OFFICIAL PAGE wrote HI DotA2 Gamers Berbahagialah kalian karena mimin akan membagikan GIVEAWAY 10 Immortal Items untuk 10Pemenang yang Beruntung jadi jangan sampai kelewatan yah berikut adalah KETENTUAN dan SYARAT yang harus dilakukan oleh PESERTA Like Fanpage www facebook com Level1cyberworld SHARE konten ini ke profile kalian Comment DOTA2Level1 mudah sekali kan tunggu Watch my awesome Battle Camp Replay Download Now my awesome Battle Camp Replay Download Now 2 teman yang ingat ulang tahun saya pfff Thks all Memiliki kemampuan tawar menawar yang hebat keakuratan dan cermat dalam penghitungan Pekerjaan apa yang aku miliki 10 tahun kemudian out what color are you according to your birthday and what does it says about you at stuff battle skill soul pets et cetera make me enjoy this game 5 doa2 ini akn mmbntu kamu mnghpskan dosa2 anda ssai dengan jnji Yesus tetap bukan brrti bhw anda tidak perlu ke ruang tobat kamu mngku dosa surat orasi suci 15 doa dan janji yesus kepada st briggita doa kepada st yudas Tadeus 4 seingat saya seblum masa antikristus akan terjadi Pengangkatan dimana hanya orang baik yang msuk surga dan yang msih berdosa akan tinggal dibumi truz yang tinggal dibumi akan menghadapi masa antikristus itu mrpkn masa paling seram oleh sebab itu janganlah berbuat dosa dari sekarang dan Bertobatlah continue 3 sebab dengan menerima chip itu Hubungan anda dengan tuhan akn putus permanent oleh sebab itu janganlah menerimanya tetapi bagi yang tidak menerima chip itu akan dibunuh Ingat sesungguhnya kita buka berasal dari dunia ini melainkan di surga sama seperti yesus continue 2 Antikris merupakan anti khirstus dan ini merupakan bukti besar bahwa kedatangan allah sudah dekat suatu saat antikris akan menawarkan kepada kita semua sebuah Chip yang akan diletakan didahi dan tangan nama chip itu mondex kalau tidak salah Jika anda menerima chip itu ke dahi tangan anda maka anda TIDAK AKAN PERNAH MASUK SURGA continue 1 Janganlah terlalu sibuk dengan perkerjaanmu janganlah gelisah hatimu dan BERTOBATLAH sebab kerajaan allah sudah dekat mungkin anda tidak prcy bhw kedatangannya sudah dkt tetapi sesungguhnya tanda2 kedatanganya sudah terlihat seperti pembunuhan pemerkosaan penculikan bunuh diri teroris munculnya fenomena dan munculnya ANTIKRIS continue error semua game Fb saya swt OOOMGG these teman teman are visiing my profile o Axel Pratama 1136 views Andre Alogra Cilogi 983 views Ch Yvonne Noel 542 views Cornel Sakti 300 views See who views your profile di tidak boleh main bljr melulu seperti dipenjara wkwkkw Komp disegel pswrd untung saya bs buka wkwkwk Pertarungan akhir jaman cpet lambat akn dimuali FB lambat berfikir banget do you think What do you think What do you think What do you think sial UAS mat saya pasti jelek ah senin uas mlzzzz Merdeka libur 2 hari yesyesyeysyeses Play ''Pet Forest Online'' in Facebookm Advebture Game SsSsS Sngt cape di sekolah coba boleh tidur Langsung tiur deh saya z z Gme apa iya yang di Fb lagi nge TOP Kiamat yang Telah ditetapkan Hoamm Kemarin pingsan di rumah pas pulang kamping wokokokoko Kihrnya Merdeka Juga dechhz Ah sebentar lagi UAS iya Bentar lagi UAS Zzz Need Study Hard wui tadi aku ikut lomba melukis se kabupaten tapi kalah wkwkkwkwk burng ijau dan burung merah sdng duduk wkwkwk Zzzzzzzzzzzz Gk enaknya tidak boleh main pada hari libur Akhirnya bebas dari penyiksaan UTS wa ini ke 2kalinya ku publish blue duck wa Widih FB saya berubah ''Waduh pemilik Fb dicuri oleh seorang Hacker '' dan meminta tembusan 1 Milliyar jika ingin dikembalikan Kalo tidak akan dimasukin Berbagai Virus hanya sekali click virus itu akan menyebar ke seluruh Fb trmsk Fb anda iw jijai Buzzz Tolongilahhhhhhhhhhh kalau ketemu hwn langka terbitkan juga iya Tolongi lah ''Merry chirsmas Happy New Years 2010 all my friends'' ea Langka loh Spa cpet dia dapat isinya 30 sunflowers loh Game baru di NDS Black Ace Red Joker HOW WANT THIS BROWN EGG loh prefect Holiday present 100 100 lv 24 25 desember 2009 kok Farm Ville aku tidak bisa dibuka iya WAA silakan yang mau ambill AKHIRNYA BEBAS DARI PENJAJAHAN ULANGAN MID Broommmm bullsed apa paan neh yes Lv 21 twenty one XXI Brommmmmmmmmmm kura2 pink Wa Bullsed Kumpulan Arthiqokes banyak banget wa mau masuk golnya gila2an zzzz bumbunya sudah ku kasih RACUN TIKUS WKWKWKW aw ambilah kura2ini kasihan wii lucu we yeesess yes YEA Kumpulan rasberries lv 9 1 jedeng Of course I'm is Good Friend we Blupp ambil ini 6 KALI 5 KALI 4 KALI 3 Kali twice jeng2 yea yes lv 19 pergedek lagi Akhirnya dapat jugaa besar sementara oioiooioi jeng2222 lv 16 zz Demi beli scarycrows hilang Uang kertas hijau 15 GroARRRRRRRRRRRR PUSING PUSING PUSING PUSING PUSING Kero kro kero iwiwiwiwi Hansen kok ADA kucing dptnya bagaimana GANAS susahnya naikin lv nya sudah yes akhirnya tidak GEMPA di waw siapa gangu kuburanku wkwkkw we Para2 hewan yea jadikan aku neighbors di farm vile dong Penuh dengan Bibit yes lv 11 GRATISSS owwwww yeaaa yee sudah banyak hewan berkat hansen dan vincent thkzzzzzzzz Kalo ada Gempa yang kulakukan yaitu klr rumah lalu selamatkan jiwa dan SIAP SIAP MATI wew wow My Happy Aquarium upgrade my aquarium Aduhh katanya di berita ada gempa hari sabtu 24 09 2009 di jakarta dengan 8 5 skala ritcher Gempa Nasional ADUH GIMANA NIHHH SEMOGA tidak jadi gempa Bring me some Anmals in the Farmville please Suka lag ini FB aku tahu lohh cheatnya farmville fndnfhcrcingnjfmc '' di di '' di di '' '' '' '' '' 0 oo 0 '' z z ZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZ moooooooo rumput jadi sapi kalau sapi jadi RUMputt awakwkakwkwkwkw yeas wakkakakakak cpetnya saya naik lv ye ye yes kematian ow yea silver bagus ini wakakkaka lv 7 wew qwq ow yea oww yea yes ewwer My Happy Aquarium lv 3 richard banyak egh yes HELP ME GIMANA DAPAT GAJAH ANGSA KAMBING KELINCI UGLY DUVK PERINGATAN Bagi yang main Happy aquariummohon di check aquariumnya setiap hari agar tidak MATE Wkwkwkkwkwkwk peringatan saja w yes di ku bersihkan semua aquarium ada kucuing nya to makin tidak mengerti wkkwkwkw wew bagus gfak ini game AKirnya banyak hewan juga deh BULLSED ADA GEMPAAAAAAAAAAAAAA BETULAN LOH YES nAIK LV uang sekarat dehh merdeka yes ow yeaaaaaaaaaaaaaaaaaaaaaaaaaa bagus tidak akhirnya lv 5 my lucky sudah kuduga WA INI LR LANGKA ow Monyet SEMOGA ISISNYA NAGA KALO GAK NAGA BURUNG PHONIEX AJA aaaaaaaaaaaaaaaa mlzzzzzz zzz zsdfgsgfr dsfs kelinci iya Bebek to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muka Aib saat ada yang ulang tahun HBD Josephine moga2 dekat terus walaupun jarang siapa v GBU Heater v HBD Father Panjang umur lahh Toko Jam Jaya Tetap Berjaya Thug Life Ea thuglife father birthday bos s Boom Akhirnya kumpul lagi Lama tak jumpa Anjayy time friends quality monday holiday M A G E R Silent For Jombs I HOPE THIS 'v Boleh dicoba Hmm The Lol's Rabbit Cara makan mie instan tapi tidak mau instan niat Qq v Lagi masa tenang tiba2 babak baru datang v cumawow Belajar Database sudah kayak belajar Sejarah sudah istilah2nya itu loh Lagi asik main Csgo tiba2 duarrrr SiBiru keluar O O Tired of this v RIP Pak Sarjono Saya tidak lupa dengan Bapak dan pesan Bapak sampai sekarang GBU Liburan bersama Tugas Project Quiz Ujian Akhir Di telolet in saja lahh Yang baru belajar Algo pasti tahu v Gw yang suruh kamu speak tep Because you bawel Stevandi Steve Apa yang Anda pikirkan sekarang facebook asking First Bekasi cuma buat ketemu manusia paling kiri bekasi latepost Doggy Wow same v Asekkk v Patut dibaca Duh sudah tengah malam masih saja membicarakan 4 November keepcalm Keterima peminatan Artificial Intelligence o Homina Homina Homina spongebob artificialintelligence binus Hai Indonesia kami dari IndoStoryCafe sedang melakukan market research tentang Cafe Konsep Sejarah Indonesia Kami minta waktu nya sebentar untuk mengisi kusioner kami sesuai pendapat masing masing iya Ampunn sultan tertawa v Mending nokia lah masih lbh hemat baterai v Godaan Nintendo is Coming ' Aaauuuuu v Really o Khilaf dulu lahh sebelum UTS v Eaa v Impossible v That's Real Wihh yang pasti ini koding lagi mwlakukan proses if else tertawa Finally Buat Ngoding Game o Jadi Programmer ajaa tertawa Buat sharing ajaa Saling menyerang kandang sendiri zzz Abang Adek Winner Slow kalau ow w Ndut sudahhh Kodingan makan tuan tertawa Hamster bisa Drift v Hmm Susah yaa nge gotcha nya tertawa Ada horsea di tol Cikupa tertawa PokemonGo Iklannya iya ampun Coba setiap penjualan tablet tab punya batasan umur penggunaan Basket gabungan American football ini keren Flash is same Ini baru penemuan hebat Kurang valak sama kuntilanak ini mah Valak dan lala galau gara2 dibully orang indonesia v Akhirnya barbie memilih karier baru tertawa Real Pokemon Eat Tampanan Mana tertawa perangTampvan B i F ng IGusti Bagus Agung Oka Berikunya ganti hp ini saja lah bomat sudah kalau masih lama tertawa Ini namanya Telor Ayam Tabung tertawa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rencana mau dual boot sama ubuntu tb tb windows hilang its real should i go 2 flb hmm what the fuck 1 step closer when god help kamu getting 5 sorn rip final testing water team for xeno ifrit gif when Mona Glisa life goal Solo p Baha done xd imma use taiko class and change my name to hibiki tertawa i prob will not go outside tomorrow frieza gg i prob should abandon my light and be fire lord i prob gonna regret this ada yang tahu g ini error kenapa astaga terima kasih tien xd when gbf want kamu to farm xeno ifrit vice mvp using uncomplete fire grid life goal sad day 1 progress sub accord 0 xd its possible to get 6 chest wut but sadly i got trash xd fate extra ccc collab event is really annoying i dont need gun anymore seperti Tien really increased my luck xd my own sub makes me salty what the fuck i dont need kamu done 2017 XD wtb 10 tiamat anima Xd khilaf sesekali wkwkwk jualan akun gbf di reddit membuahkan hasil tombol search di grup facebook sudah g ada kenapa tertawa man this is suck kecewa sudah another gold moon gg im done with this game gacha gg It seems stephan chen back in action sadly typical indo ahok kalah coba gacha rainbow gold moon what the fuck p5 artbook scan tertawa niat amat ripjakarta rumah tanpa dp beneran efekif reference im bored tertawa 10 more level holy shit GG lah nice persona 5 plot twist mind blown gg nice train huang long train perfect for mage creed farming yusuke is best persona 5 is a dating sim game with some rpg in it xd eng dub enak juga ternyata kwwk juga pertanyaan di p5 PS4share sad truth behind persona 5 what the fuck seriusan bilang begini Rip my luck akhirnya bs solo dao xd finally on sub accord gg lumayan lah bs menggantikan main accord xd worth it pingin ngetroll raid pakai dsaru di 1 april xd rambut sudah panjang banget ternyata xd even dragon studying oop Steven Pram best part of the movie got all zeta 10 free roll bug terima kasih kmr xd nomor gold moon and why it always dark chara rip saya salah pakai sendal orang so intense next saya my baha will be mlb i hope wow alexis buka cabang XD yang diributin bahkan armpitny nanti kalau di ambil malaysia baru pada protes XD XD finally nomor primal summon baha hl here i come Sayang g bisa dinaikin XD Therry Prayogo Finally Op sixxx xd last step hope they giving blue crystal as 3rd anniv present tertawa why sub so close terima kasih free 10 draw i dont need to suptix her anymore xd pacific rim xd Holy rip my gacha luck ggwp rip uang sekarat indomaret ambil uang baru sadar kartu atm ketinggalan di pekalongan pulang tiba tiba hujan nyebrang kepleset sandal lepas di tengah jalan g sempat ambil rip sendal event unk stat is so bad fml xd Saeful Ramadhan tertawa just need to wait till 22 then good bye cosmo axe oke good bye ifirt must get ding dong girl berapa kemungkinan korut bakal nuke indo sad rip Collab part 1 Alisa is the freebie SR Wind Luna is gacha SSR Dark Character is this month's 5 SSR Collab main boss is Losaria Hell special boss is Bell Angel Latter is also playable by getting an achievement in Shadowverse Collab part 2 Play Shadowverse and receive Granblue in game items Likewise play Granblue Fantasy and receive coins elixirs and packs in Shadowverse There is nomor time limit for this part 180 to go Therry Prayogo Time for getting sarasa why nomor erune wrong alter shadowverse collab xd dark rate up not even one dagger when two monsters met ez done tertawa lovin the event summon seperti just relaised i had enough money from cny to spark kinda want to unlock apsara for djeeta smug face holy another one unlocked this literally Caliogstro finally tertawa koshka still op if every round like this solo 90 nm tertawa dat katalina bonus is very effective when people are lying about phalanx rip saber venus tertawa Gill prob hate his father rip luck how they programmed the girl's consciousness in C dao is so generous tertawa nge lihat ini di animasiin jadi mixed feeling tertawa tertawa reroll accord dapat antara 2 ini terus seperti rip i ve failed kamu musashi tertawa x got the chicken but i dont play earth xd lancelot got xd rip luck 2016 tertawa cant even 2 man rose queen tertawa ez game Anthony Nguyen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asdf Hola Lel Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this At LGF 2011 Citraland D Katakan sesuatu tentang ini CHU APA kalau mau ngeraid kasi tahu saya dolo seperti Si herder wokokok apa Bulldog Help Believe in JesusChrist One of my facebook friends challenged all believers to put thison their wall In the Bible it says If you deny me in front of yourpeers I will deny you in front of my Father at the Gates of Heaven This is a simple test If you love God you are not afraid to show it repost thisLihat Selengkapnya Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift tadi gempa iya wee ikan emas I ain't afraid of nomor ghosts Are you Party hard My raid unit and I have just entered the Sunken Ship raid location Let's see Bait check Mechanism check Magic circle check Now where did I put my Scuba tank alibi There is regular whisky and there is Nessy's Golden Reserve it's distilled magic My raid unit and I have just entered the Sunken Ship raid location Let's see Bait check Mechanism check Magic circle check Now where did I put my Scuba tank I ain't afraid of nomor ghosts Are you weqs T T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Santoso Casey Ediana Putra Stephanus Sk H 30 Albert just completed level 5 on Angry Gran Radioactive Runaway Play for free on iOS and Android aduh ilmuwan sosial itu apa lebih baik sastrawan deh aduh lab inggris jelek sudah Happy Chinese New Year All woi yang anak db 2 buat tikom bukunya sudah ada yang ketemu blom kalau pakai cs 5 boleh tidak orang egois tu sama semua iya sama saja mau menang sendiri kalau kalah marah sama orang yang menang The A team seru banget karate kid bagus lebih baik nonton yang mana lagi iya woi england lawan amrik yang menang siapa akhirnya ragnarok tamat Cardinalnya copo akhirnya ragnarok tamat Cardinalnya copo tomorrow is a freedom 2 day to freedom ayo matnya doain saya dapat 100 malu maluin kamu sudah gede menangis pantesnya kamu jadi anak tk ci cici saya copz si bio bahannya apa si wah saya her jtn pkn ini Wah bsk ulum harus blajar cape mlz sudah disuruh blajar buat ulum tidak niat ketemu ruben onsu di mall plizz my dream yesterday back and become my dream today hoki banget saya kwkwkwkwkwk woi mandarin kumpul hari ini iya woi mandarin kerjain tidak si 2 tugas selesai tinggal 2 lagi kwkwkwkwkwkwk ternyata ada iya kakak kelas yang tidak tahu malu kakak kelas saja sudah bicara BACOD apa lagi ade kelas kakak kelasnya ngajarin yang tidak benar si yang kaya begitu CACAD wew hari ini tidak kerjain novel gara2 scenario asik Ragnarok saya ada lagi dan sekarang sudah bisa download game ds sendiri follow saya dong di twitter albert kocakz aaaaaa kapan iya saya dapat Rp 10 000 lagi tidak konsen harus ringkas bi dulu baru konsen harus dapat Rp 10 000 aaaaa juga suram tidak bisa konsen gara2 sodara yang masi bayi Ragnarok yang sudah jauh di apus sama BAYI kurang asam hikz Rp 10 000 aaaaa penderitaan sudah dimulai sudah mau kerjain bi ada 4 anak bayi grrrrrrrrrr setiap sabtu datang 3 bayi lagi eh yang pernah main ASG kalau kena sakitnya bagaimana manis asin asam perih Ancol saya lupa kalau masuk jam 7 30 grrrr saya bahkan jam 6 30 masuknya aaaaa enakan main BF dari pada ke MAG sudah cuma liatin cici bli barang bli beha lagi cacad duduk sma mima ag seru walaupun ag pindah enakan teman yang lama lagi di Bandung banyak kejadian aneh jadi bingung saya Dragon 3D keren habis untung tidak nonton hachiko plizz dong jadi pergi ke bandung atau rafting aduh plizz ulg PLKJ mandarin JTN dan B Ing tuntas semua tidak ada yang merah plizzzzz aaaaaa gila nilai saya jelek semua tidak naik kelas adik saya kenapa ini MID MANDARIN harus SUSAH why ngeselin tidak blajar saya GRRRRR GOD GIVE ME MIRACLE aaa CF laptop CF laptop CF laptop CF laptop laptop kapan DIBELIIN siapa yau pakai LAPTOP cici saya bisa buat main CF kapan LAPTOPnya DIBELIIN ancol CF enak banget jadi mau main lagi blajar TIKOM tidak iya mlz juga blajar AGAMA juga si ayolah last day to freedom hari akhir2 mid enak dikasi 2 hari buat blajar 1 hari buat santai 1 hari lagi nanti sks tae tae tae tae pkn pk pkn pkn susah banget God give me miracle tu my mandarin test aaaa mandarin sadis her ini saya bulan ini its bad month saya tahu sesuatu tapi blom tentu pasti yang nyakitin hati saya saya tidak pernah kaya begini sebelumnya sudah cukup sabar saya kapan iya sabar saya hilang jadi marah saya kemarin mampi apa iya tidak ada inti kok sesat iya buku harian bingung isinya aaaa little big soldier pertemanya lucu tapi akhirnya payah tidak lucu tapi bikin orang menangis rugi tidak nonton percy jackson kwkwwkwkwkw saya punya fismat heabt sekali kalau saya punya fismat saya atur paraturannya wkwkkwkwkw ngakank saya dibilang pinya fismat wkkwkwkwkwkwkwkkwk L O L hebat angpao tahun ini lebih banyak 1 jt dari tahun lalu hahahaahaha tidur dulu iya all sudah ngantuk ini ayo mata tahan sampai jam 2 malam harus sembayang jam 12 aghh sekalian tulis status ah hahahahaah satu jam lagi harus sampa jam 12 malam Novel harus tiap hari ringkas 2 bab ayo berjuang kenapa saya sering bantu dia ngehargai di tapi dia sendiri tidak ngehargai saya anaknya juga bocor tetep saya hargai tapi kok dia tidak hargai saya iya banci kamu saya tidak salah kamu salahin bilang saja tidak mau musuhan sama stefanny nastasyah yanetritien dan teresa grace banci kamu jadi semua salahin ke saya tidak punya otak kamu payah toLOL yay bisa FB di hp saya sesat aduh lama ini pulangnya gara2 si sang sang lama banget jemputnya yay mandarin selesai hahahahaha woi anak db 2 kls 7 bahn 20sejarah buat ulg bsk bahannya apa gila petir di rumah saya keren alah resee kamu sudah bangga pada diri sendiri anjing kamu kaya babi tidak tahu malu sudah tahu mau main komputer dimatiin kompinya anjing amin inggris saya tidak merah YAY kamu yang babu bukan saya yang babu sudah kamu bilang saya pengecut kamu sendiri pengcut ASBUN tidak perlu begitu adik kamu dasar tidak JANTAN LEBAY pula senen banyak pr males buat saya bego tidak iya yay bsj hari yang lumayan enak PR Pkn sesat susah banget dicarinya ah tidak fisikanya agak gampang tapi nomor terakhir tidak teliti cuma harusnya 0 0015 tapi saya 0 015 sial cuma beda nolnya 1 sial tidak isa les gara2 les akhirnya bisa les inggris sama guru Mr Ismet mantap aduh tinta print cacad abiz tidak kluar tugas bi bagaimana ini agh bsk duduk sama damar lagi bosen saya kenapa tidak dipindahin sial bu surta rese Mantap hari ini skull cuma dikit blajarnya yah hari ini sekolah payah yah hari ini sekilah Akhirnya bisa nanganin lewat out bond wkkwwwkwkwkwkw Aduh LAMA banget nyampe villanya pakai bli kue mochi segala buat teman saja wkwkwkwkw agh komputer lagi di sefis tidak bisa main facebook dari komputer Merry Christmas all aduh cici saya rese saya nungguin dia pentas natal adik rese sudah kayaknya lama Grrrrr aduh ambil rapot tidak takut si tapi mlz nunggunya sudah lama lagi agh aaaaa mau ikut LDK osis tapi tidak boleh jadi osisi agh saya suka sama lagi sama bzt jln2 aduh pkn agama susah banget sudah mlz blajar lagi mlz blajar sejarah dan bio dari cetak aduh hari ini ilum ah mlz akhirnya tugas pkn selesai juga sudah buat 2 kali lagi yang pertama sudah hampir selesai eh mati lampu blom di save lagi kurang ajar wado tidak bawa kartu prestasi disuruh buat tugas lagi mlz ah rese akhirnya RED JOKER dan BLACK ACE tamat black ace kemarin redaksi joker hari ini kwkjwkwkwkwk NI BUAT TMEN W DOANK mlz blajar jtn agh tidak ngafal buat OR agi parah agh bingung mau bli wii atau laptop kasi saran dong agh hujan tae lagi di antar jemput kaya di kapa selam netes netes masuk mobil agh ah kangen main geta jadi culun lagi ini agh tahu tidak michael dwitama alias dede suka sama siapa happy halloween all woi yang ikut ke obake enak bisa main saya sudah hilang 10 000 tidak main lagi anjing benar tu antrian gila seru tadi orang brantem wlkwkwkwkwk gila lama banget di bus blom sampai ke sekolah lagi di theater ini pingin cepet study wisata jadi bangun jam 4 akhirnya raport ketemu aduh raport saya hilang atau kebawa yang kebawa punya saya bsk kasih saya dong skull lagi malez akhirnya bisa bebas walaupun 1 hari agh 5 oktober hari yang menyebalkan sial gara gara mid sial seru dikelas lagi bebas seru lagi di kelas bebas yah sekolah lagi payah ah maunya hitsugaya aduh gila stres saya gara mau mid masa pas libur begini di suruh blajar payah ah siapa itu jah zodiak saya yang kluar kwkwkwkwkwk wkwkkwkwkwk tidak bisa kalau tidak dewa iya payah ahhhh 6 hari lagi sekolah males mid kata siapa saya dukung ini hp apakah kuis ini benar wkwkwkwkkwk kayaknya tidak atau iya akhirnya nyampe jakarta lagi di bandung gila makan di puncak nama restonya jangkar mahal amat seru sadis ah saya sekamar sama sodara sama anak bayi tidurnya payah sudah ds saya dipinjem terus kalau batrenya habis gg percaya susah sudah villanya sih enak tapi panas asik lagi di puncak wkkwkwkwk lagi bebas ini di kelas lagi main main seru setan teks pkn cuma 4 menit minimal 10 menit lagi mau buat ada kondangan harus ikut lagi payah yah tidak cocok agh ulg ingris her ini cacad males bsk banyak tugas seru lagi dirumahc GE lagi sekolah ini pelajaran inggris guru lagi kluar kelas tae lagi main geta masa gempa bikin orang kalah tae cacad sudah her mat 2 kali kok bisa iya wah muzizat pasti ini boong aduh pusing kerjain BI males bangety disuruh mading lagi sudah rapot nilai jelek semua dimarahin ah capeeeeee sudah mading blom selesai pasang hari selasa cacad banget cape lah sudah ke sekolah malu maluin par </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia Kembali sakit siapa Yang Tidur Siapa Siswa ini SANGAT SEMANGAT belajar Kimia Eka Teguh D'SilverLance Acai Chandra Richie Ryan DjBilly Gautama this movie Infinity Infinity AldiFaiz This is my WeChat QR code Scan it and chat with me Just download WeChat at is my WeChat QR code Scan it and chat with me Just download WeChat at Albertus Alexander Cape bukan karena nambang karena teriak Albertus Alexander Winston Marco Sofian Winardi Jonathan pertama sekolah Hari pertama sekolah Tuh K C masukkkk She Love me Wait 5 seconds because nomor image Ain't Nobody Got Time for That Tuh K C Hasil dari Jumaat kemarin Denger Berita Memasuki libur panjang Besok saya sekolah Oh god why First Day on the internet kid sama saja sama readyboost pemerkosaan dari seseorang Ry Hariman Sugara kyaaaaaaaaaa Wkwkk Hariman Sugara bangga pada diri sendiri keren banget cuyy Hariman Sugara gila chef ken LOLOLOLOLOLOL PON Belum mulai atap lapangan Tennis Udah Runtuh LOL meme jackie chan Ciri Perawan tua Kalo bicara tidak bisa stop sampai di sebar sebar yakin kalau jualan account facebook atau Cuma jebakan Jackson Saya baru saja ngucapin Selamat Ulang Tahun Ke 2 LivingSocial Indonesia dan dapat kesempatan buat menangin iPod Nano iPad 3 Sumpah keren Berkemas Berangkat Temukan Vaastu mu menangkan The new iPad itu uang tertawa Dasar orang sinting tertawa begitu saja main ban nampak dak berdaya kali Woohoo Gue berhasil Check In dan nambah score Mau dapetin Toshiba New Satellite M840 yang seharga Rp 8 juta hanya dengan Rp 1 juta Antri saja disini anjing Mati lampu annoying message ckckckck Gak ada Beda juragan Sama saja kayak IDM speednya Stres kalau tidak ada pulsa masih dunia lain berlebihan banget rumput saja di zoom tidak bisa tidur buka facebook tertawa Which character would you be in the Avengers Find it out at Indonesian Life Roleplay 0 3e Address 210 247 242 83 7777 Players 25 75 Ping 55 Mode IL RP V3 99 Updated Map ILRP MAP He's The lord Fucking cool Oh My god Me Gusta He's Not A Gay D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y tes Y tidak ada alazka miami pun jadi p Good Better Best Never let it rest Until your good is better and your better is best 21 Duncan Y ngung wakuncarOOO wakuncarOOOwakuncar OOOOO A L A Y T T Makasih iya semua Menikmati hari terakhir liburan SSG 69 TH Permainan sniper dari Thailand Type a question right here Enter your text here Fireflies Type a question right here Sleep mode on download lambat pakai idm sori bukan promosi langsung ke TKP di PB Hujan angin kedinginan Practice makes perfect Gempa Akhrinya selesai juga skk Ooo download time Funatastic Two Birds what's on your mind Running in circle Hooam chat facebook kurang akurat kerjaan pada saat liburan tidur makan main komputer makan lagi tidur lagi denger lagu tidak lupa solat Abs bulan puasa kok laper melulu iya libur bosan masuk sekolah males Mohon maaf lahir batin beberapa jam menuju hari kemenangan Panas jakarta ajib sudah What's on your mind Tepat singkat padat Panas bung Bentar lagi libur Ajib benar Coming Clean Earth paling enak menunggu buka puasa sambil minum es campur paling enak menunggu buka puasa sambil minum es campur asik bangun tidur terawih facebook chat kok sering error O o type your question right here I'd like to make myself believe That planet earth turns slowly It's hard to sayang that I'd rather stay awake when I'm asleep Cuz everything is never as it seems Kita mesti telanjang dan benar benar bersih Download bntar lagi selesai komputer mati Nasib menunggu berbuka    puasa di internet Type a question right here puasa banyak cobaan Kompetitor terberat yahoo msn Google search Engine ane hanya GOOGLE Little wonders Thinking forward sebentar lagi puasa cepat sekali hhe Waduh ane kira bsk libur our lives are made in these small hours these little wonders these twists turns of fate time falls away but these small hours these small hours still remain Gerah uy Merdeka 15 40 Bangun tidur Vulnerable Badan pegal Yeah is basket time Satu kata Optimis ' Musim flu melanda ESMOSI Slow but sure O o Pagi langsung denger adik bertarung Wkwkwk Jakarta panas Yesterday is history tomorrow is mystery but today is a gift Yesterday is history tomorrow is mystery but today is a gift Tomorrow is a new day Mbah surip selamat jalan Tak gendong Ngerjain pr bhs arab O o Meluncur ke jakarta Di bandung Capek Capai Buset cri gantungan baju tanda tanya susah amat soalnya ane juga salah bicara bilangnya gantungan kunci bentuk tanda tanya Pantes tidak ada O o From First to Last Habis gelap terbitlah hutang O o I lop kamu pul O o Tanya kenapa I lop kamu pul Enak dong light's theme 3 Salam super Memasuki hari yang rumit besok masuk sekolah O o Pengen cepet plng Saya buueetee he Ojan alhamdulliah Ehb selesai bsk ehb semoga berjalan dengan baik yah kalah lagi wah facebook saya bisa ngirim kalimat tidak jelas tidak sabar dengan transformers 2 libur lagi uuooo sial libur lm bosen joegaa tugas banyak ampun dehhh saya mau teriak A L I I I I I Udh tidak sbr ketemu dia puyeng tidak ngapa2in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">owiss makan beling berak botol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">di putrijaniviani Tesya Hasil analisa temperamen anda adalah seperti di bawah ini Anda adalah tipe yang serius terhadap teman anda juga sangat peduli bagaimana pandangan orang sekitar terhadap anda Maka anda dengan mudah merasa sedih karena hal kecil bahkan terkadang bisa disimpan lama di dalam hati dan tidak bisa membiarkannya Ketika anda marah sering enggan untuk menyakiti orang sering mengambil hal hal kecil lain yang tidak bersangkutan untuk menyalahkan orang lain Meski maksud anda baik tapi orang lain tidak menghargai kebaikan anda bahkan mengatakan anda kekanak kanakan tidak dewasa Saran Manusia memiliki hak untuk marah tidak marah bukan berarti anda baik hati atau suatu keberhasilan Di sisi satu ingin menahan diri di sisi satu kehilangan kendali hanya akan membuat anda nampak sinis Marah juga salah satu cara untuk mengekspresikan diri Tesya Analisa konsep keuangan anda adalah sebagai berikut Bagi orang yang memilih perut ikan tengah termasuk pembelanja ketika mendapat gaji bulanan mereka sangat populer sebagai pembeli besar ketika ada penjualan di department store terutama pada makanan dan baju asalkan mereka suka pasti tidak ragu untuk merogoh koceknya maka dari itu mereka sering terbelit hutang Tesya Hasil analisa kemampuan logika anda seperti di bawah ini Anda memilih Nomor 4 Sopir mobil di depan nomor 4 telah melihat dia akan berhenti Lagipula nomor 4 akan dipanggil berhenti oleh nomor 1 2 karena nomor 1 2 menatapnya jadi baik baik saja Selamat anda salah menebak I am lucky to have a friends like you teman teman Trip to belitung XII IA 3 With B'6 at prom night Prom Night SMA Santo Yosef 2015 Prom night 2015 Ceritanya cuma mau pergi mkn Ehh hbs mkn bahkan ke pantaii Serasa lagi di private beach Ga ada orang soalnya Wkakakak Besok UN Pink B'6 Sinmung kadonyaa Luvv youu gaiiss Paraii Swim di aston Always be friends forever Nal's bday party 25 My cutie niece New hair New hair My cute dogie black vie We are young and we were be friends forever We can stay forever young Full to the max Wish a miracle tomorrow Fighting GBM Saat ketika bosan belajar Akyuu lucu beudds Fans dephii celalluee celamannya polepell muachhh We call us LTC You're not my FUCKING friend Thanks teman teman Khususnya B'7 nd my bestie Dessy Ling kesiah bella aldo atung Dhanesa Prisilia My cute nephew B'7 crazy club studyhard test tomorrow history mandarin WML Mading mandarin Instaa TesyaFebbyL Study hard for bio Thanks mom Tugas numpukk tepukjidat Nothing to doo Lalalalalalaaa Ternyata dunia ini sempit yahh Sick Welcome XI IPA 2 SOS Sepatu kebesaran you've gotta get up and try Besok hari terakhir di sabang ' Jadi sedihh Babii fangin tuu okk Lempar percon lagi dpan uma kuu Ka pikir rumah kamii tu apa Gak pnya otak mang Ortu kakak dcd ngjar kakak e Bangsat mang kakak too Fuck Bye XB I will love nd miss the moment with kamu teman teman Thanks for evrything ' Welcomee XI IPA Biologi pasrah B indo asli ngarang Ntah apa hasil a besok Hahahahh Let it flow saja First day B inggris mtk OR Wish me luck Dwea Selamat jalan Dwean Baik iya di sanaa Jadi anjing yang baikk We love you Heii loo Balikin donk anjing saya Ga tahu malu banget sich loo Kalo mau anjing iya beli donk jangan maling pnya orang Shit Flu melandaa Class party Makann Nge'diskoo Hahahahh Nothing to do Rainy night D Ekonomi Semuanya pada stress Anak XB pada gila oii Org lagi UTS bahkan ngechat di grup Ahahahh Lucuu Biologi mandarin stress tingkat tinggi I wish I could do the best today Bahan Geo bnyak bnerr Bljr saja baru stngah Blm belajr agama Blm hafal rumus kimia Aduhh SMA Santo Yosef Saint Joseph Senior High School Happy Brithday Saint Joseph Senior High School 50th Wechat line nd whatsup ID Tesya Cenn Masih mau tidurr Hoamm Efek libur Hahahh D 3 Smue barang hilang Gatau kmnaaa Ringemm Bntar agc tewas a a D a a D D Geo seperti sosio Ohh noo Coklat betambun Cmne mkan ah Kek melarr kuu nee Hahahh Thank's teman teman chocolate nya D Happy chocolate day mendung Males bangun o Gong xi fa chai Happy chinese year Yeeyy Capek Smua pada stress Hahahh s Galau karena fisikaa Biologii Hahahh Lo pikir ituu lucuu Gag ada sedikit pun yang lucuu Fuck Be strong D Back to school Last day Keajaiban D Pasrahh B Inggris Fisika Wish some miracle Pray for fisika and sejarah tomorow UAS di depan mataa Study Hard Rasa ini muncull lagii Hell Ngpe sich ikak ngte ku d'belakang Mang apa salah kuu Hanya gara msalah spele g jadii cmnii rumit a Kuu dc ngrtii apa yang ade d'otak ikak too apa g selalu ku yang slah a Pening kuu cmne care a ngjelas seperti ikak Mn ikak g agc cmtuu seperti kuu Tidak berjalan sesuai rencana nyesek Belajar sambill di temani oleh KITKAT O O c di taman gantung Lintass alamm Buat yang d'sna HBD yaa D Moga pnjng umur shat selalu nd makin suksess GBU Sanyo's expoo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m Bekerja bukan tentang uang tapi tentang senang atau tidaknya melakukan pekerjaan itu Saat tidak mengenal orang dengan baik ia akan terkejut saat orang itu menunjukan dirinya yang sebenarnya Hal yang membuat manusia berkembang adalah rasa tidak puas akan sesuatu yang positif contoh tidak puas akan teknologi dan mencoba mengembangkannya lagi dengan ini manusia terus lebih berkembang karena mereka ingin yang baru terus Yuli kaya anak hilang wkwkwk sebuah permainan adalah saat seorg membuat kreasinya masing2 hahhah Org sukses orang yang bisa berfikir kedepan ANDIKA Kecilnya lucu gedenya cakep keren lagi wkwkwk mudah2an kejadian ini tidak terulang lagi gara2 kemarin saya mimpi buruk kan aduh rasanya pengen memutar waktu Harus tambah jago dari sekarang supaya menang Yh ampun hari ini ada banyak nomor yang saya tidak tahu sms saya Mimpi indah wkwkwk Astaga tangan tangan saya ternyata kamu tidak berubah masih sama seperti yang dulu hahhah Gw cuma manusia biasa hahhah Nyesel saya Rasa manis tercampur rasa pahit rasa manis hilang karena rasa pahit hahhah Berharap kejadian masa lalu tidak terulang hahhah Semoga besok yang terbaik yang menang wkwkwk Gk banyak berharap Apakah kejadian yang dulu akan terulang lagi hahhah Penyesalan terberat saya saat saya membuat kamu marah Klo diinget2 seneng juga yh Apes gara2 kemarin keinget masa lalu Hanya bisa berharap hahaha Gw baru sadar gerakan saya semakin cepat dari sebelumnya Apakah saya lebih baik dari yang dulu Dari lahirnya dunia sampai akhir akhirat membuka jalan yang dengar panggilannya buang dirimu pada takdir dan serahkan dirimu pada semua Gara2 lupa di save sampai sekarang belum maen2 hahhah nothing impossible p Aduh enak santai diranjang sambil main wkWkwk Astaga lupa di save Yei akhirnya Apa miribnya Asli saya dibuat penasaran Tumben saya bisa begadang wkwkwkwk Ko hari ini saya tidak bisa tidur yh di di Renungi kata2 saya Hahhah Kejadian ini akan menjadi pengalaman saya yang paling saya inget hahhah Gw nyesel kenapa saya bisa begitu bego Ah sial saya emank tolol klau saja saya bisa mengendalikan waktu pasti semuannya tidak akan terjadi hahhah Aduh sudah sampai belum yh di di wkwkwk Melupakan semua yang sudah terjadi dan memulai yang baru wkwkwk ko dua hari ini mimpi saya aneh2 yh wkwkwk Mesti seneng apa sedih yh Jdi malas maaf Apa kah saya sanggup berubah menjadi lebih baik wkwkwkwk Ada monyet sama gajah WKAKAKAK kenangan yang menyenang kan hahhah pengen berubah tapi sulit hahhah Akhirnya ulum selesai hahhah Pengen seperti dulu tapi tidak bisa hahhah Hari ini mau joging tidak yh di di Ah rese jumat tidak jadi libur Wkwkwk Gw dan yuli Muka saya masa depan suram wkwkwk Pengen cepet2 kuliah wkwkwk Wkwkwkwk Gw memang manusia biasa Hahhah beli sepatu basket lagi hore saya butuh kejujuran dari kamu hahhah Gw butuh kejujuran bukan kebohongan hahhah Coba saja saya bisa mengulang waktu hahhah Wkwkwk masa lalu aduh pel mat wkwkwk foto saya masih kecil p terima nasib saja deh haha Klo saja saya bisa mengatur waktu saya ubah sekarang jadi tanggal 21 hahhah Mending buka facebook wkwkwk Ketenangan dan kesepian Kau dan aku p Buset main game monternya manggil teman melulu jadi tidak selesai2 kalau selesai dapat expnya rpa ini gila dikamar kaya di kutup utara Nyolot salah tidak nyolot salah baek salah tidak baek salah apasi mwnya wkwkwk Bsk ko tidak libur wkwkwk die Rusuh Aduh kaki tidak sembuh2 Wkwkwk ternyata saya berguna juga wkwkwk Njis film homo wkwkwk Bosen Sial ternyata it sudah direkayasa oleh 3 orang it Ujan berenti donk Udh lma tidak main dota jadi pengen main lagi z dibikin sttS pke pp lma deh wkwkwk ini orang satu bt lagi Gw akan sabar hehheh Oon juga sampah kan 6 huruf bukan 6 kata wkwkwk kenapa hidup saya kaya begini Anak smp trinitas ada yang mau masuk sekolah Gw jadi bingung ada yang bilang masuk ada yang bilng libur yang benar libur apa masuk si hari senen Gila tinggal saya doank yang belum wkwkwk mau nonton tapi malas nyetel tv wkwkwk aduh mau bgn jam 4 bahkan bgn jam 1 Apes2 saya menunggu film one piece dari jam 2 ternyata mulainya jam segini zzz kacau Gw rela bgn jam segini cuma buat nonton wkwkwkwk Jam 3 ternyata ada kartun sial amat wwkwkwkw seneng juga tidak mungkin tidak da yang peduli ma kamu hahhah Apes2 saya main cross fire dikatain ngecheat cuma gara2 ngekill melulu emank dasarnya saya jgo mau diapain wkwkwkwk Aduh kecewa ma nilai komp saya cuma dapat 90 dua2nya xl parah zzz Wew smsnya baru ke kirim Gw sering berhayal tapi hayalan itu tidak pernah terwujud walau saya sudah berusaha hehheh Diajakin tapi ditinggalin Nina bobo kalau tidak bobo di gigit saya wkwkwkk Gendut pendek idup lagi wkwkwk Sial saya sudah cape2 ke sekolah gurunya tidak da rese banget Hari ini sparing sudah capek kalah lagi apes2 cuma ber 6 lagi Si albert lagi pke badan saya buat lewat zzzz Mudah2an nanti menang Hidup ini emank serba salah yh kalau bicara salah tidak bicara salah wkwkwk Ccd banget satu team yang jadi cuma saya zzz Sial saya dikacangin david sial amat main dota 5 kli menang cuma 4 kli wkkwkwkw Cacad Senen libur senengnya hehheh hari ini latihan buat web kirain seru twnya bsn Yes hari kamis tidak jadi ulangan bio kan libur wkwkwk Pengen cepet2 tanggal 3 wkwkwk Gw bingung saya tidak pke paket sms tapi ko pulsa saya tinggal 108 masih bisa sms kenapa itu dari pada belajar lebih baik online wkwkwk Malez belajar Ruang 1 akn menjadi ruang terancur wkwkwk Bio iseng Hari ini saya bahagia banget hehheh Iseng iseng iseng wkwkwk mimpi saya pedahal cuma satu dan saya percaya mimpi saya akn jadi nyata tapi ko mimpi it tidak pernah jadi kenyataan Tdi ulangan mat ngasal semua wkwkwk dapat rpa kh Ah ko orang yh sudah lma tidak ketemu saya bilang saya kurus tidak kaya dulu gendut Gajah nge dunk wkwkwk Ko setelah saya mengenal dia kerjaan saya smsan mlu wkwkwk Knp yh da yang tahu tidak kenapa Mulai hri ini mulai bljr serius lagi deh huh ah 4 hari ini saya sial melulu zzz Aneh hari ini Seneng campur sakit Bahagianya hehheh Waktunya begadang Bsk mlz sekolah lgian tidak da pljran bsk kenapa Yes ps kesanyangan saya ketemu wkwkwk tambah bonus dapat basket saya yang dulu tapi kempes si huh wkwkwk Gw cynk banget ma dia aku memank manusia tak biasa yang sempurna dan tak pernah salah wkwkwk Yeh senin libur Kaki saya sakit banget capek huh mesti tdur dulu ini zzz CAMPUS BROTHERS HEHHEH Cpe zzz Udh pulang asik Zzz pilek menyerang saya Kli ini harus dapat 100 saya boleh 93 lagi kalau hari ini saya di kasih pilihan mau hp atau bola basket saya akn pilih bola basket supaya saya bisa berlatih sendiri agar saya bisa menyaingi kemampuan bejo dan berto Gw kalah main wkwkwk kenapa ujannya gede apakah gara2 saya sering membuang buang air apa kh karena saya nakal kalau kaya begitu saya mesti meminta maaf wkwkwk cuaca marah sama saya wkwkwk Gw sekarang niat main basket saya harus latihan setiap hari HARUS wkwkwk Besok exkul saya akn disiksa gurunya wkwkwk Adu sertes saya ngerjaiin pr fisika 25 nomor Ah ulangan pertama tidak 100 bahkan 93 ah tidak seru cuma salah dikit zzz Ah itu kan nilai saya tidak 100 gara2 lupa sedikit zzz sial ada yang belum hafal saya isa dapat 100 deh zzz Huh untung dia tidak sadar wkwkwk Hahhah kaki saya kapalan semua Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz zzzz Ngantuk mau tdur tapi banyak halangannya huh aduh tadi sudah tdur sekarang ngantuk lagi huh Ada tidak orang yang benar benar menyukai seseorg bukan dari tampang dan harta wkwkw Gw merasa bersalah gara2 tadi confirm bio mahal banget serius wkwwkwkwk tidak akn saya confirm seumur hidup kalau tidak saya remove lagi wwkwkwkw confirm bio mahal banget serius sumpah wkwkwkwwkwkwkkwkwkwkkwkw canfirm bio mahal banget wkwkwk confrim bio mahal Sebelum januari saya harus sudah jago main basket wkwlwk wajib </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited Edition Interior Eksterior Sangat Detail Harga by PM Kloter hari ini sekian saja 45k Detail ban karet Diecast SOLD OUT Thankyou Tant and Om merss Salam Diecaster Ternyata audi r8 toh om Enzo Faris Abidzar R Cahyo Adi N tapi boleh juga lah hihihi mantap FS saja deh ada 2 pcs mint in box Harga by pm iya biar akrab Dijamin murah meriah Awalnya cuma mau 1 eh ketemu 4 Ambil 3 saja deh Tinggal hunt cabe merah bantet Diecast SOLD OUT Thankyou Tant and Om merss Salam Diecaster Akhirny kelar colek suhu Enzo Faris Abidzar Ferdian Aditya Pratama dan decal om Andry Wisnu terima kasih lho om2 Walau belum sempurna tapi memuaskan first repaint first decaling Diecast SOLD OUT Thankyou Tant and Om merss Salam Diecaster Pulang2 disambut ginian senangnya terimakasih om2 disana Gadapet hw lumayan lah dapat ini Di lus mau ambil ban eh pas dibalik shock kok ban ny kayak begini Ngeng pegangan yak Diecast SOLD OUT Thankyou Tant and Om merss Salam Diecaster Lego hw Diecast SOLD OUT Thankyou Tant and Om merss Salam Diecaster Tan Omers yang jual decals bwt detailing hw siapa iya Hmm Mendarat dengan lancar om thank you om Enzo Faris Abidzar buat mas masan nya Disaat Mas Batangan sudah terlalu mainstream Berisikan Diecast HW berbalut Gold Chrome Monggo kalau ada yang mau nambahin Kolpri yah Not For Sale Diecast SOLD OUT Thankyou Tant and Om merss Salam Diecaster WANTED Want To Buy In Blister or Loose tertera di masing masing foto Yang punya ingin dilepas boleh PM me Harga cocok angkut Gambar diambil dari G gle Thanks Salam Diecaster Fs 17pcs take all rp SOLD Ex ongkos kirim dari jakarta 4pcs atas kanan reblister Diecast SOLD OUT Thankyou Tant and Om merss Salam Diecaster Welcome to the little family Diecast SOLD OUT Thankyou Tant and Om merss Salam Diecaster Hmmm Diecast SOLD OUT Thankyou Tant and Om merss Salam Diecaster Diecast SOLD OUT Thankyou Tant and Om merss Salam Diecaster Diecast SOLD OUT Thankyou Tant and Om merss Salam Diecaster Tante om ers yang lagi lelang fnf jada ini tolong di tag in iya Thankyou Sapa tahu ada yang punya mau dilepas Yang mau adopsi monggo merapat Moris di 35k Lancer di 40k Ex ongkos kirim dari jakarta Banjirrr WANTED Want To Buy In Blister or Loose tertera di masing masing foto Yang punya ingin dilepas boleh PM me Harga cocok angkut Gambar diambil dari G gle Thanks Salam Diecaster With H2 garage terima kasih iya yang sudah ngucapin Owh yeahh Dragon city birthday ini baru greget terima kasih all Baru ikutan FIND THE PRIZE ini Cara mainnya gampang banget tinggal temuin saja hadiahnya ada dimana langsung jadi milik kita deh Ayo pada ikutan tinggal klik saja link di bawah ini ada alfian ah last day ehb help Singapure mantap Showroom bentley retreat cape Final yang menegangkan pin bb ku 2626DE34 Ol di rumah monang horee bola tanah bola api bbola awan terima kasih for all my friends GBU you too D phantomm PINATA hiddeni salju Bird wow hidenni octo hidenni monyet ayam Audi zero D 1 1 2 jam di mobil trasa bosan dengan HP mati macet lagi costum phoenix google crome lage heng cape adik pakai mozila lagi lambat berfikir hiddeni buah tertawa ahahahahhaha fsdfsdfsf horayyy Oh Nella' Tsukiyomi aku rindu wajah mu suara mu kenapa tidak pindah ke samaria lagi ada banyak kenangan steven robin ahaaa tertawa gaya hideni serangga gila fragie terima kasih buwat yang help space rocket aku D weww wew kgjls BOTOL GW PECAH SIAL hahahaha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">o i 9 i9 O Mantap Halo semuanya Video pertama Fabtatoes sudah jadi ini Boleh di cek iya Fabers Challenge FabTatoes Jangan lupa subscribe dan share Jual tiket SMTOWN INA Minat HOAM Hari ini jadi tidak jam 10 kan Hack The Ghost Mode 'til U Get Banned Kuliah dapat menyebabkan kantuk pulang malam strez dan akhir na gila Interned saya lagi lag brat jadi gx bisa OL CF T T CF lagi maintenance cape di menunggu lagi jlan2 ke puncak huh pnaz bnget Harve's pet ''Wolly'' is da bestzZ 4ever 'n ever Ok Harve's Pet is da best 4ever 'n ever addduuuuhhh mati lampu teruzzz saya jadi mlzzz Lagi mlz niccchhhh Busssseeetttt Ujan na gede buaaanggeeet g lagi pergi ke perkawinan ampe tidak bisa plng di ruang terbuka sicch asssyyikkk cuma merah 1 9 na ada 6 dan 100 na atu asssyyikkk cuma merah 1 9 na ada 6 dan 100 na atu P'ling malz kalau mati lampu huhh di khirnya sudah ammppe jooggjaa asyikkkk ayo masuk ayo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISET PASAR SHOPDECA Halo semuanya Mohon bantuan dan waktu teman teman yang pernah berbelanja online untuk mengisi kuisioner singkat dibawah ini untuk membantu penyelesaian tugas akhir saya mengenai E Commerce Shopdeca Terima kasih banyak di HASHCLOTHID IT'S LAST DAY OF 02 PRE ORDER READY STOCK 03 April '17 Details Material Soft Cotton 30s Color Colorful Size S XL NORMAL Price Rp 80 000 pcs When you got the motivation to learn and to improve yourself I am not confident enough but I am eager to try Correct me if I am wrong Visit and read more moons poetry blogspot com moonspoetry And the light that you left it helps me to see a way through all the bitterness a way to who I really want to be Visit and read more moons poetry blogspot com moonspoetry Disney feels Tinker bell wohoooooo HAPPENING NOW It was WorldPoetryDay yesterday so today I'd like to share my first ever and my favorite poetry which was written three years ago Visit and read more moons poetry blogspot com moonspoetry Minioooon Visit and read more moons poetry blogspot com moonspoetry Today last year happywhiteday Happy white day Visit and read more moons poetry blogspot com moonspoetry Help me to fill this questionnaire about Indonesian E Commerce for my final project God Bless Visit and read more moons poetry blogspot com moonspoetry H 4 Happy IntenationalWomensDay Visit and read more moons poetry blogspot com moonspoetry I cannot Dunia serasa milik berenam Happy sunday Visit and read more moons poetry blogspot com moonspoetry Ig di hashclothid Line Mr President samyangchallenge again kerjaan jam dua pagi dengan peralatan seadanya full video is on youtube knew I needed you but I never showed but I wanna stay with you until we're grey and old visit and read more moons poetry blogspot com moonspoetry Peace visit and read more moons poetry blogspot com moonspoetry goals Cause what if I never loveeeee again visit and read more moons poetry blogspot com moonspoetry Happy Valentine's Day visit and read more moons poetry blogspot com moonspoetry and YOU You leave me breathless you're everything good in my life repost visit and read more moons poetry blogspot com moonspoetry H 1 year CNY cannot wait CAN'T WAIT It's as if my heart knows you are the missing piece repost visit and read more moons poetry blogspot com moonspoetry International Marketing 2017 And I just can't reach out to tell you that I always wonder what you're up to repost visit and read more moons poetry blogspot com moonspoetry Oh these times are hard they are making us crazy don't give up on me baby repost visit and read more moons poetry blogspot com moonspoetry Things to do when you are already 'lengser' It's gotta be youuu uu uuu Visit and read more moons poetry blogspot com moonspoetry It is been a while since I had so much fun like today Let me go home Oh I miss you you know Visit and read more moons poetry blogspot com web version might be better moonspoetry Please don't go Addicted to this song by Joel Adams Visit and read more moons poetry blogspot com web version might be better moonspoetry Pekanbaru every part of my life that is fated to cross the same path with you I hopelessly turn my back on you Lesson learned too much consuming thriller movies could cause lack of inspiration to write but I will continue to watch them anyway Happy holiday Visit and read more moons poetry blogspot com web version might be better moonspoetry Is it me or her that you see through my eyes Visit and read more moons poetry blogspot com web version might be better moonspoetry Tell me how to get this job The most intense drama I've ever watched so far Follow di satori planner on instagram Pekanbaru and Jakarta based wedding planner Visit and read more moons poetry blogspot com web version might be better moonspoetry Just updated my blogspot Visit and read more moons poetry blogspot com web version might be better moonspoetry I always wish that it was all enough Because you are eternally enough for me Moon Poetry see your true colors Siblings throwback I could never thank 2016 enough for shaping me into a better person who is nomor longer feeling so terrified about opening the door to the world I have been keeping my own world to myself Well I like to observe people I feel what others feel I absorb surrounding people's emotions but I never told them I did not socialize much I had a small a really small circle of friend Sometimes I even pushed them away by turned off my phone or deleted the chat application I really did gosh maaf teman teman This year I learn a lot I learn to express my feelings instead of bottling them up I learn to be stronger even when everything was falling apart This year I gain so much things more than I expected Love is the most I feel loved by the world People started to listen to my stories laughed smiled cared It feels so amazing Well I did not sayang it was all easy through the whole year What I mean is this year I really synchronise the black and the white melody of this life And that is all terima kasih to people who never give up on me nomor matter how difficult I am to deal with Thank you everyone HAPPY NEW YEAR Visit and read more moons poetry blogspot com moonspoetry Japanese at its best 2 07 and up A day a month a year how time flies as loneliness has become my best friend Written by one truly artistic friend check him out Tommy Tandera LOL look at someone's phone and be like so bright you could die or laptop 2017 is coming soon and well I have been writing since 2009 Wow I still could not believe that I've made it this far I used to write fiction stories instead of poetry like I do now There was a lot of supportive readers and comments ups and downs and still I had a lot of fun at that time And this one is from If There's Still One More Chance 2010 short story about someone felt regret over something she knew she should not do it and everything was already too late when she finally realized it For some people writing might sound boring But it's fine everyone will get their own right place in the right time eventually and I believe that I've found that right place Wish everyone a blissful new year Visit and read more moons poetry blogspot com moonspoetry And maybe just maybe it is all enough So before we move on to 2017 I would like to clarify something My initial moon is not what you think it is It is not the moon that shines in the night sky It is a childish story but ok back then when I was 14 I liked Korea so much and just like the other fans I tried to find my own korean name It appeared to be Moonri Also I already started to write and then I used the first name of my korean name as my initial Moon So yeah that is all I am not getting emotional or sentimental when it is full moon or else I am not getting the inspiration by watching the moon up there No I am not LOL Inspiration could come from anywhere and also nomor it is not based on the true story of mine tertawa okay thank you for reading Visit and read more moons poetry blogspot com moonspoetry You deserve to be loved repost It is almost the end of the year and people need to realize how blessed they are to be able to watch the world spinning until today And </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTB shaman baru jadi in PS or Gold gear ijo tidak apa apa yang penting lvl 80 yang niat WM dalem game nick saya Ducbeuregard ampm horde WTB shaman baru jadi in PS or gold gear ijo tidak apa apa yang penting lvl 80 wm yang niat Anjer neh IDGS kena sunami atau apa main WoW suram amad lag nya main main yah kamu njng speedy anjeng cacaddddddddddd bangkrut saja kamu ' Last world when i leave singapore ''Mencretttttt ENE BARU NAMA NYA PALLY RETRIBUTION WTS char pally horde lvl 80 eq lengkap sudah reput ashen verdict yang minat post me WoW AMPM This is preposterous Am I to assault the undead with nothing but sticks and harsh language Kael'thas Log in server down LOL FOR THE HORDEEEEE Ricky 2 tahun baru masalah baru anjing uang di bakar study from mistake how ever I still love indonesia anjing firman bodoh GANYANG GANYANG GANYANG MALAYSIA GANYANG MALAYSHIT SEKARANG JUGA All under control indonesia suram YANG MAU DI TAG TAG IN SENDIRI YANG GK MAU DI TAG SILAHKAN DI REMOVE Bahlul Cuma saya sendiri doank yang masuk sekolah Bangs TTTTT yang motong rambut taek Stresssssssssss Hey Baby asyik seperti gene ae setiap hari bahlul almamater ketinggalan di ancol One Last Drink Please anjrot komputer sudah banyak virus a terpakasa disk cleaner anak X infinite kalau tidak ada guru surem a I need a hitman for a special job I need pro Executor now anjrot paket salah alamat a Your silence is slowly killing me lihat kesaksian akbar yoo iya allah doakan lah kedua orantua ku agar mereka selamat sampai tujuan dalam menjalankan ibadah haji dan lancarkan lah proses haji mereka dan berikan kemudahan dalam ibadah haji dan jadikanlah kedua orangtuaku menjadi haji yag mabrur amin hufh nasib HP hilang pembantu neh yang ambil dari gelagat nya ketahuan surem pembantu kampret taek gene neh speedy kalau hari minggu lambat berfikir gila main PB pink cmn 2 surem sekolah itu tidak perlu pinter yang penting pinter cari uang Pride Is a Weapon Adolf Hitler WORK IT OUT aaaaaaaaaaaaaa main L4D 2 main yang expert nya di kejer kunti 3 suram I SWEAR BY GOD THIS SACRED OATH THAT I SHALL RENDER UNCONDITIONAL OBEDIENCE TO Adolf Hitler F hrer OF THE GERMAN REICH AND PEOPLE SUPREME COMANDER OF THE ARMED FORCES AND THAT I SHALL AT ALL TIMES BE READY AS A BRAVE SOLDIER TO GIVE MY LIFE FOR THIS OATH PROMISE NAZI SOLDIER cantik suram ms kristal Can anybody provide me with a decent challenge SWT Alaysia mencari gara lihat saja mencari gara saya panggil nazi dari bulan bwt nge nuke kamu hohohohoh Penting taek suka plin plan kalau bingung sedang apa di terima GAN TANGGAL 27 AGUSTUS NANTI BAKALAN ADA 2 BULAN BUKAN BULANNYA YANG JADI 2 GAN TAPI SALAH SATUNYA ADALAH PLANET MARS YAITU KETIKA PLANET MARS MENCAPAI JARAK 34 65 million miles of earth Jgn lupa lihat iya juragan Tanggal 27 Agustus jam 12 30 am IST Berharaplah di indonesia muncul juragan aduh plin plan sudah hadoh jadi tidak sabar menunggu 2011 mau nonton Iron Sky asyik alamater jadi 3 minggu lagi akan lebih ganteng saya make alamater najesss film the last airbender jelek YANG BLOM NONTON HARAP JGN DI TONTON ASTAGA SEMAKIN HARI BULE SEMAKIN BANYAK ORRRRRRRRRRRRRRAAAAAAAAAAANGGGGGGGGGGG GIIIIIIIIILLLLLLLLLLLAAAAAAAAAAAAAAAAA hohohoho wasem gara snorkling kulit saya jadi hitam suram Hari Jum'at mau diving lagi mana saya kurang bisa berenang Tenggelam sudah di laut bruakakakakaka Weleh Gw Belajar Bahasa jepang tertawa asam kalah tarohan lagi sama kevin German akan mengulang kemenangannya di negara nya sendiri Piala dunia 2014 akan di laksanakan di Bayern Muenchen derrrr panzerrrr team will repeat his victory at Bayern Munich awkakwkwa mantabb gann German akan Juara Piala dunia 2010 J CHAR 56 polosan AAAAAAAAAAASURAMLATOZZZZZ CHAR NYANGKUTTT ea BELS AMA CORA ALLY KGK REDHO GW ALLY AMA BANGSA CEBOL SWT SEHARUSNYA SERANGAN YANG GK WAJAR ITU ACC TERUTAMA STRIKER NYA BUANG LAH ISRAEL PADA TEMPAT NYA ASEK BELS AMA ACC PECAH ALLY AKWKA DI ELAN DAH KYK KUCING AMA ANJING akwakwka WEEEE DUPE TEMBUS Ich bin Single Ich freue mich sehr YESS AKHIRNYA ADA RAZIA MAMPUS KAU CHEATER CORA AKAN BERJAYA LAGI DI LYRA Dieses Gef hl begann wieder zu kommen JUAL CHAR PB POINT BLANK PANGKAT DIAMOND 2 KUTIP 2 KD 64 HS 29 TITLE LENGKAP SENJATA POINT LENGKAP MINAT HUB 081386973980 THX Alangkah Beruntungnya Penguasa Bila Rakyatnya Tidak bisa Berpikir Mein Kampf huh hari yang melelahkan Apabila di dalam diri seseorang masih ada rasa malu dan takut untuk berbuat suatu kebaikan maka jaminan bagi orang tersebut adalah tidak akan bertemunya ia dengan kemajuan selangkah pun Justin Bieber One time Laki laki dan perempuan adalah sebagai dua sayapnya seekor burung Jika dua sayap sama kuatnya maka terbanglah burung itu sampai ke puncak yang setinggi tingginya jika patah satu dari pada dua sayap itu maka tak dapatlah terbang burung itu sama sekali Bung Karno cacad kamu dika make scroll kan kamu saya kalahin kamu cmn make 3 skli doank PERCAYA ATAU TIDAK PERANG DUNIA III AKAN TERJADI PADA TAHUN 2010 Lagu kahitna takkan terganti versi german MAAFKAN SAYA SMUA TEMAN BILA ADA SALAH TOLONG DI MAAFKAN MAKLUM MANUSIA ITU TIDAK LUPUT DARI DOSA DAN JUGA DOA'IN SAYA AGAR NILAI UN SAYA BAGUS BILA ADA KATA YANG KURANG BERKENAN TOLONG DI MAAFKAN SAYA AKHIRI WASSALAM WR WB Orang banyak beranggapan Adolf Hitler Menniggal di bunker iya itu terdapat di berlin namun pada saat di teliti bawha jasad yang di temukan tentara rusia adalah jasad Wanita di bawah 40 tahun Banyak Pengamat sejarah mengatakan bahwa Hitler pergi ke Brazil Argentina Amerika selatan dan yang mengejutkan ada yang beranggapan ia tinggal di Indonesia wah angel net sudah buka lagi di ganti nama nya sama Imanuel net hhe main teruz nig Ein guter Freund ist ein treuer Freund wenn er wei wie ich mich f hle KEEP YOUR PROMISSE BECAUSE YOUR MOUTH IS YOUR TIGER aduh pulang hujan kehujanan deh di jalan bareng Yudha Ardiana naik OJEK HOLIK kwokwowkokw BASAH semua kwokwwo gila in my live have a two choice sad or happy and i choice happy sial banget tadi siang saya di lempar botol sama buku sama seseorang di kelas saya huhuhu hanya karena hal yang sepele kwokwowk Wedding pla ikutan I believe IN you setiap hari rasanya hujan tidak adakah hujan salju LAgu saHabAt From Chagcut aduh tidak ada kerjaan di rumah saya Selamat tahun baru 2010 Maafkan saya bila ada salah maka dari itu sata mengucapkan minal aidzin walfaidzin mohon maaf lahir dan batin Merry Christmass and Happy new year libur panjang telah tiba mari kita isi dengan hal yang bermakna kwokwokowkkw ea ea ea ea ea ea ea ea ea 1 hari menjelang pembagian raport waduh ea ea Paloma Faith Technicolour Seharusnya Nazi harus ada lagi untuk memberantas para Yahudi LAKNAT Dalam peristiwa Nazi telah membantai 6 juta orang yahudi Di tangan Adolf Hitler I m Alone Please Accompany me Tq For my all friend Say meeee Happy B'Day two days to grown up Lee So Jung One Rf Theme Song Waduh UN Di majukan ke bulan Maret zzzz nomor coment in my mind Tetaplahg Bersatu Pemuda Indonesia bagi orang jowo mungkin tahu artinya KASIHAN Selamat Hari raya Idul Fitri bagi yang menjalankannya mohon maaf lahir dan batin Slamat Hari raya idul fitri mohon maaf lahir dan batin Akhirnya Libur Telah Tiba I m Coming Liburan Haus Mendera di siang hari Seperti Tenggorokan ini kering Sepertinya tidak lama lagi Buka puasa hhe 30 HARI Menjelang Lebaran HOREEEEEEEEEE 2 Hari lagi menjelang Puasa Dpo Bagi Yang Menemukan Telp 991 ok Siap UNtuk Puasa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instagram triladias xxx follow mention for fllwingback heart my page I'll heart kamu back iya semuanyaaa 3 follow and ask FOLLOW yang mau difollow comment jfb iya follow iya terima kasih D Farida Taskia Fira tertawa melihat video tia ketawa haha D trias iasdi hotmail com add iya terima kasih 3 follow teman teman thankkkyou parah berlaku curang itu kalau begitu caranya juga saya akan bagus nilainya Alia Nabila there isn't any perfect people so we must know we are not perfect in the eyes of allah D bored when I make one looks at looklet there are people who like mine but not long afterwards she's copying my style all the same but only just a different model saya mau nya damai iyaaaaaa aku aku sadar ko tapi kalau masalah itu pasti karena karma dulu kamu sering ninggalin aku jadi bukan karena kita dendam cumaaaaa itu karma yahh mohon dimengerti D p jin kazama jon foo D jahahaha 3 Veda Ocvira Maharani Hunnie Anggraeny Arina Tiara Adriana in fact crying is just a useless thing because the world only briefly why waste time just to cry for a thing better to work and worship is more important for the future ngalangin saja siiihhh hmm tidak pernah diceritain apa apa padahal harusnya saya tahu p siapa coba yang selama ini dibicarain saya saja tidak tahu kalau malas yasudah p masak masak with Veda Ocvira Maharani Tiara Adriana hihi walaupun rada hancur awalnya tapi enak bikin mau nambah hihhihi sayang kakak Hunnie Anggraeny Arina tidak ikut hhihihihihi D trias please heart this D yaaa D follow yaaa D Veda Ocvira Maharani semoga kamu suka edite an nya yaaaa nilai berubah sikap berubah tapi jangan berubah menjadi yang buruk 3 god hayo hayo hayooo belajar buat to buka buka buku yang kelas 4 lagiii yoo SEMANGAT YA lalala ada website yang tidak bisa bosen kan jadinye buat Alissa Nur Ahdia wall to wall saja yaaa chatnya error Alissa Nur Ahdia error melulu ih Belajar lagi buat TO hari minggu he bosen dirumah iya twitter LIMIT online twitter with Anggun Wikanissa Alissa Nur Ahdia Nabila Zalica online di sekolah LEMOTY p Suka deh sama pp gueee Hihi twitter LIMIT gawaaaaatt habis PM bawaanya ngantuukkkk o huaaammm si Alia Nabila kenapa coba tiba tiba marah begitu kayaknya ehhhh si engkong tidurnya lucu abiss GEMESS twitter limit Alissa Nur Ahdia chatnya on off melulu benar benar tidak asikk speaking English in school with Alissa Nur Ahdia and Anggun Wikanissa hmm ikut ambil rapot ahhh ahhh Dwike Hereka February sangat aneh ckckckck mengerjakan tugas IPS huffttt hmmm tugas ipa harus dipindahin ke komputer baru di print hmmm capek bolak balik Nabila Zalica Alissa Nur Ahdia Anggun Wikanissa lagi pada dirumahhh asikk Udah nyampe di jakartaaa Otw ciwalk bandung Maccet Otw bandung asikkk habis main bultang di GOR punggung keseleo AAAWWW away tidur pagi iya dadahhh chat menipis sahabat part II yang mau chat tidak perlu chat dulu iya error jadi wtw saja hmm pada memang ada yang mau chat sama saya hahaahaha twitter why there should be a limit us so can not write a lot of tweets wishes in the new year the best in next year twitter saya limit GAWAT bosen dirumah yaa internet lemottt midnight nonton avatar lagii pulang nya menginap dirumah bi Ina Farlina asssiikkk laaahhh buat Anggun Wikanissa happy birthday yaaaa semogaa umurnya berkahhh yaaaa aminnnn habis dari ps nonton avatar with Alia Nabila Veda Ocvira Maharani Alia Nabila Veda Ocvira Maharani jadi sebenernya mau kemanaaa Telinga gueeeee sakkkiiitttttt Sumpahhh sakit banget ihh ' berautis autis with Alia Nabila Veda Ocvira Maharani akhirnyaa bisa foto jugaaaaaa p pengen cepet cepet les sama Alia 20Nabila Veda Ocvira Maharani ahh pengen main tapi boleh tidak yahhh yang punya skype comment yaahh Alissa Nur Ahdia Nabila Zalica crepes saya jadi tidak enakkkk hahahhaa yahhh baru foto sekali sama Tiara Adriana sama Alia Nabila saya tidak boleh main jadi pada pulanngg nanti kalau sudah selelsai ulangan kita foto foto yahh aduuhhh teraktir mie ayam dong Alia Nabila atau Tiara Adriana hari ini lagi bangga pada diri sendiri saya foto foto melulu nihh bagus deh lampu sudah nyala tapi lampu nyala bel koslet aduuuhhh berisik nihh belnya bunyi teruuss hhhhhhhhhhh mati lampu engkong jadi tidak kelihatan tadi saya cari cari dirumah tidak ada itu si engkong pas turun ternyata dia ada diluar untung pager ditutup selamat photo photo with Alia Nabila and Azkal Bintang asik asikk untung saja mang Budi Hermawan kerumah jadi ramai deh bosen ini dirumah Alia Nabila Veda Ocvira Maharani Tiara Adriana main ayo D ayo ayoo lagi di sumedang hueee enak banget suasananya pengen kekebun dulu ahhh D Kemaren mama ulang tahun kasih sureprise dehh Hheehhee kemarin hari senin ngerayain ulang tahunnya Alia Nabila kita ngerayain bareng Tiara Adriana Veda Ocvira Maharani sama mardyah seruu deh pas kita habis makan saya sama veda pulang pas habis pulang balik kerumah alianya bawa puding hueee seneng kemarin mid night nonton ninja assassin keren banget huaaa pengen nonton lagi Love Logo from my friends hari ini dirumah rameee asik asikk D yippieeyy besok kita sholat idul adha yeeehh tapi ko belum ada yang takbir takbir itu yak lagi video call sama Dita Panjul tapi suaranya ccacatt Dita Panjul kamu ko off dehh mau skype tapi kamu nya tidak nge answerr huaaa ada yang tahu cara bikin skype comment yahh ngirim photo lewat bluetooth ke laptop ko tidak bisaaaa sending filed teus nihh ah elah ahh uploud photo ahh tapi lemottnyaaa iya allah hhh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingin dipeluk dan disayangi oleh semua orang karena Afif suka semua orang I can't wait to watch this anime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That moment when you meet your first fan very grateful to be alive i've live for today and you should do it too </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMG OMG 3 3 bugil ah h ninja tuna Join RaidCall today and have some fun with your friends doing group activities that go beyond from just simple chats this includes playing games singing karaoke and much more Download Link www raidcall com Calvin Fernandes Denny Adinugroho Adrian Setyoyudo Adrian Setyoyudo Denny Adinugroho Calvin Fernandes is not genuine z check wut adik hell seoul kalau mau makan tempe tidak usa tanggung tanggung wah wih Dafuq is a PUK code sitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisiti aku homo Microsoft Word Write letterz and shit yo' Mobile Uploads terima kasih for the wishes perfect record time kenceng lolololol sayang never part 2 oq never sayang never part 2 saya f aqi g4g m4 aql gs sm e gs upl 2947l7207l0l7433l22l20l0l7l7l0l233l1844l2 9 2l13l0 Naek motor yang benar Hai fren mau b kep First FPS game on Facebook saya suka sama See more tidak juga ini buka epbe di mac hotel di See more di See More counter strike saya ganteng fetgh pijio pijio er rty rty ghghg ghghg ghghg ghghg ghghg ghghg ghghg ghghg ghgh ghhhhhh kgkjn kgkjn ukgk hbjhjnjknkhkj trbank hesoyam Older Posts Problem kalau punya restoran kaya hanamasa mnding sdiain ayam hidup bacok sendiri goreng sendiri lagi nge drug panadol A bitch as a wife is an epic fail moreover the bitch doesn't work and only be able to waste money Ironic every ladies crazy when her daddy's not around coba ketik rainbow google di google co id terus klik im feeling lucky bukan jebakan betmen tenang saja bersahabat apa bahasa inggrisny bertanduk iya ampun asd asd asd asd saya mau ayam Enrico style devin Enrico style pak yu mahoan sama pak mi titig hari ini pada nulis setatus bed dei terima kasih for all the wishes SM SH seven homo as seven homo bsok facebook tutup tidak hari ini konferensi meja binatankny bahas yang lumayan aneh Tower bloksnya beuh viktri Acak dengan senangny menghabiskan 6 mangkok nasi hainam Uuuuu mantap Mobile Uploads Ea ea NB DT saya dipaksa DT Wihi cincin waduh acak poin lihat sudah nama karakterny bai bai teman si lalat hitam Ugh APAAN happy new year all Gigit gigitan Made with www TotalGraffiti com ada yang tahu sbenerny enr suka siapa tidak Made with www TotalGraffiti com join my pack on dogwars my pack on dogwars my pack on dogwars Sirs and Madams I am an up and coming Racer of Pets and I require your assistance Please help by joining my team saya cak saya menang dim Someone beat you in tennis match on Tennis Mania Return the loss to Him play a match now Someone beat you in tennis match on Tennis Mania Return the loss to Him play a match now is playing Tennis with friends is playing Tennis with friends </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for IT student semicolon only exists at the end of line of code Elmo Tan Mas nya nyasar jauh bgtz Kartu flazz jatuh di mall 3 tahun lalu baru ditemukan sekarang Semoga sukses selalu bu God bless teamskripsi binusian2017 di Binus Kijang Semangat pak Kutipan dalam video tolong di viralkan supaya ada yang membantu karena panjang sekali bekas lilinnya Bosen ahok melulu ngumpulin uang pindah ke kota paling toleran kalau masih ada Elmo Tan Elmo Tan mauuuu Elmo Tan kamu banget Elmo Tan vanilla Yaudah kalau memang nyusahin lain kali pergi saja sendiri gausah ngajak saya Jadi ingat kisahnya Andi Muqsith Ashari yang cewek ketawa jam 12 malam Seandainya ini seandainya kalau mau mencoblos harus ikut pendidikan kewarganegaraan dari pemerintah dan punya npwp apa mungkin bakal lebih objektifkah hasilnya Belajar dari pilkada yang barusan selesai banyak yang bertindak tanpa pikir panjang Kenapa di atas dibilang mesti punya npwp karena proyek pemerintah daerah menggunakan apbd yang sumber dananya dari pajak Supaya paslon tidak seenak udel bikin janji dan masyarakat bisa punya rasa memiliki buat daerah tempat tinggalnya Ibaratnya begini saya bayar buat tinggal disini kerja disini dan saya pengen tempat saya ini bisa terus dikembangkan dengan benar Kalau tiba2 ada pengemis datang lalu seenaknya protes tanpa mikir bahkan minta uang mentah atau downgrade perkembangan sekarang mestinya tidak bisa dong Contoh lain rapat penentuan direktur itu cuma bisa dihadiri oleh pemegang saham Tentu mereka bakal pilih yang terbaik untuk memajukan perusahaannya karyawan biasa tidak bisa memaksakan harus pilihannya yang jadi direktur Tapi percayalah pemimpin dipilih pasti untuk memajukan perusahaan sehingga seluruh karyawan tetap bisa menikmati hasilnya random deletesoon Pilkada memang sudah selesai tapi otak tiba2 terpikirkan Nanti dihapus simpen dulu siapa tahu butuh nanti mungkin belum saatnya jakarta selevel sama ibukota negara lain back to basic preach hasil dari google quickdraw Shinvanni Theodore my whole life has always been doing things to please other people so I'm doing this for me I don't need to prove it to anybody else Happy 9th Thank you for the treat Bluejack 17 1 Thank you for the treat Bluejack 17 1 Elmo Tan ayo kesini D mamam itu karma makanya jangan subjektif dalam memilih jadinya kena zonk deh D Udah setahun saja pesen go pet buat jemput mantan Elmo Tan belajar ini Bullet journal or watercolor Both of them cost time and money Any suggestion Shinvanni Theodore Elmo Tan Shinvanni Theodore Pengennn tapi hari ini terakhir dan kalau makan sendiri tidak mungkin habis eargasm kuroko nomor basuki ada yang mau memberikan corgi gratis tapi saya nya tidak ada tempat A Yang benar itu basis data atau pangkalan data 3 3 Elmo Tan kamu nid dis Friendship is not about who you ve known the longest It s about who walked into your life said I m here for you and prove it Officially 21 Left to right di alamsyah24 di stefanuscandra di shinvanni theodore di elmotan95 di noelimani di andi mqa Missing di yenyenagustina by di fransisco antoni Tiba2 keinget koleksi buku lima sekawan sama trio detektif belum lengkap sometimes it is better to go back to basic Shinvanni TheodoreAndi Muqsith AshariStefanus Chrismanata CandraNoel ImaniYen Yen Agustina Keren parah Udah macam storyboard nya apple Congraduation Shinvanni Theodore S Kom Elmo Tan Shinvanni Theodore Mochammad Alamsyah So i was jokingly said to them jangan belikan saya bucket bunga bawain saya bucket ayam goreng saja aaaand THEY DO GIVE ME A BUCKET OF CHICKEN THIS IS WHY I LOOOOVE YOU GUYS SO MUCH di shinvanni theodore di yenyenagustina di andi mqa di alamsyah24 di noelimani Terima kasih Tuhan untuk anugrah dan pernyertaanMu yang tak berkesudahan dalam hidup kami Terima kasih untuk Bu Sonya Rapinta Manalu sebagai dosen pembimbing yang baik dan sabar banget selama selama pengerjaan skripsi kami Terima kasih untuk orang tua yang telah full support dana dan perhatian selama 3 5 tahun kuliah Terima kasih juga untuk teman teman semua yang mendukung kami dalam masa sibuk stress galau skripsi Terima kasih juga untuk dosen penguji dan semua pihak yang terlibat dalam pembuatan skripsi kami Thank you partner in thesis Elmo Tan Congraduation Anthony Tantra S Kom pengen s2 tapi mahal kalau tidak beasiswa es krim saja deh kalau begitu Elmo Tan No matter your action you still gonna die Keren juga bisa masking pakai nama perusahaan besar ini penipunya kelewat jago atau perusahaannya yang ah entahlah Buang sial dikit Elmo Tan biar rezeki makin banyak friendsday uwoow Mending bayar lebih buat naik garuda hadeh Families are like branches on the tree we grow to different directions yet our roots remain as one From Yek's Family Hometown Comfort food buat jalan jauh Ini dorayaki yang empuk enak dan isinya tidak pelit cocok buat ngemil di perjalanan apalagi jalan lintas sumatera yang susah banget mencari makannya Varian rasanya juga banyak so pasti tidak bosenin Current fave Choco Ovamaltine Chocolate Almond Buat anak pekanbaru yang pengen bisa intip ig nya di celinedorayaki Bisa deliv luar kota juga lohh celinedorayaki pkulaper pkusedap pkumurah kulinerpku pkulezat makanpekanbaru kulinerpekanbaru endorsement Binus square Elmo Tan Shinvanni Theodore Andi Muqsith Ashari Yang suka ngespoiler tidak punya common sense apa iya Elmo TanFelix Rukanda Kalau ada yang mau beli course udemy bisa chat ke aku iya selagi sudah mau habis sale ini coursenya 10 150k 20 290k Kalau beli makin banyak bisa makin murah Thank you Happy new year Finally we could spend new year eve together FOR THE FIRST TIME Thanks for always being by my side May the new year be a healthy success and prosperos year for us Besties Ew Just a random thought once there is a suggestion on my YouTube page to contribute on my subscribed channel to have a caption in my language I cannot find that button anymore It was my first time to do a captioning and it's awesome and embarrassing too w especially when you rewind the video over and over again to make sure that nobody find it weird o o and doing captioning work could help me understand another language too RIP Francis Udah lama tidak jalan bareng besties by di elmotan95 Juventia A yearinreview2016 this Udah ada google maps atau waze alesan kamu terlambat gara2 macet itu invalid banget saudara laki laki mestinya janji jam berapa bisa diprediksi jalan jam berapa memang kamu nya yang tidak bisa menghargai orang lain kali yah Menang kalah belakangan yang penting pose dulu Velinda Dwi Puspa Lagi di jalan terngiang ayat ini God Bless ngungsi Lama juga iya wkwkwm Lama juga iya wkwkwm Happy legal age Shinvanni Theodore Semoga lancar lancar skripsinya yaaa Lopelope kamu so muchhhh Make memories while we can bestfriend birthday Happy birthday daddyyyy 3 years and counting 3 years and counting Happy Mid Autumn Festival Kiriman dari rumah Indomie yang tidak bakal ada di jakarta rasa soto medan Good good time highschool bestfriends hangout lama pacaran belum tentu menjamin kualitas hubungan tertawa Dari tengah malam mati lampu Orang yang tidak tahu hanya bisa mencemooh Orang yang berkuasa hanya bisa menuntut Orang yang bijaksana hanya memberi nasehat Orang yang mengalami hanya bisa berusaha Setidaknya sebelum mencela orang lain coba posisikan dirimu menjadi orang itu dulu Makin parah Udah gede masih saja jatoh hmm Jalanan macet iya wajar semua orang gampang emosi Masalahnya bagaimana cara kita sendiri menahan diri supaya tidak menyulut emosi orang lain juga Walaupun pengemudi lain yang salah karena bikin macet tapi kan diklakson sudah cukup bakal kita yang lebih salah lagi kalau sampai keluar kata2 kasar Wajar saja sih dibogem kalau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start playing Rule The Kingdom on Android BI ini Sariater swimming pool Baru plang futsal cape lngsung gnti baju eh ngliat facebook ada yang ngasi happy bday thnx all yang sudah ngucapin hppy bday akhirnya saya buka facebook setelah 3 BULAN tidak buka buka THNX ALL Got the JOKES UNREG Aldk BANTUIN supaya dapat lebih lumayan setelah 1 minggu sudah bisa dapat 100 dollar lebih deh Cape dahhhh Masa Tim Kleas w kalah sih Tapi iya mngkin saja sih soalnya lwan sama anak klas 2 tapi malu gila Tim klas w kalah 5 3 gila itu klas 2 maennya srius banget si memang sih skor 3 tapi itu cma gara kick off 2 x sama gol biasa Si andi nendang bahkan hand ccd loh di Cascada Everytime we touch Akon Beautiful Stop Aldk Info dari kaskuser Anda pasti tahu gelang power balance yang saat ini sedang marak maraknya dijual bukan ternyata seperti yang sudah saya di duga gelang tersebut hanyalah gelang biasa banyak orang percaya ketika mendengar atau melihat Gelang power balance dengan hologram bermagnet yang berfungsi untuk membuat tubuh anda lebih seimbang kuat dan flexibel itu hanyalah kebohongan belaka cek di sini Boyz Tokyo Drift Akon Right Now Na Na Na Lemon Demon Ultimate Showdown Black Eyed Peas Where Is The Love Cold With My Mind Cage The Elephant Free Love Shane Harper Dance With Me Mika Everybody's Gonna Love Today Evanesence Bring Me To life Eminem feat Rihanna I Love The Way You Lie Sean Kingston beautiful girl LOLOLOLOLOLOLOLOLOLOLOLOLOLLOLOLOLOLOLOL TOWER UD PNUH TPI TETEP AJ KALAH OL D CYBER BOSEN NIH KONEKSI LEMOTTTT BGT HHikz ini yang trakhirnya untuk semua temen2x SBM ANY STRANGERS WELCOME yang MEMANG serius MAEN games2x di FB apapun silakan melihat note w punya yang bertuliskan CARA DAPET DUIT VIRTUAL bla bla bla bla bla ini deh saya kasi tahu linknya karena cara ini sebetulnya DITEMUKAN OLEH ORANG INDONESIA ASLI bkan w loh sampai tahun ini sampai bulan ini sampai minggu ini sampai hari ini sampai jam ini sampai menit ini sampai detik ini juga BLOM KETAHUAN BAIK OLEH PIHAK KETIGA PEMERINTAH DAN SEMACAMNYA PIHAK PENYEDIA WEBSITE PIHAK PEMBAYAR UANG VIRTUAL TERSEBUT BAHKAN PIHAK PENGELOLA NEGARA PENYEDIA WEBSITE TERSEBUT SILAKAN KLIK KLO GK MO GPP GK AD VIRUS TROJAN KOK SUMPAH CARA DAPET DUIT VIRTUAL ALIAS DUIT BOONGAN HOAX BUAT KASKUSERZZ BUAT NGAPAIN AJ OK BUAT YG BACA STATUS GK JLAS DRI GW BARU INI SILAKAN LIAT NOTE GW RADA LAMA DIKIT KYNYA LALU SETELAH ITU LU COPY DAN PASTE LINK YG AD DIJAMIN GRATIS KLO PALSU LU BOLEH NGAPAIN AJ DEH SUMPAH AABIEEZZZ MANTAB Ok ini cara dapat uang gratis buat kamu semua kalau mau beli sejenis Mata uang game cash Token buat NS Playfish cash buat game playfish semacam Pet society dan lain lain tapi saya lagi coba ini cara kira2x saya kasih kabar slanjutnya 5 mnit lagi ini serius tidak bercanda saya saya baru nemuin ini cara dari internet kalau mau lihat lgsung nanti 10 minta lagi lihat saja note saya On di sekolah diem2x hiihihihihihii untung tidak ketawan guru IS STILL ON UP TO THE NIGHT ZZZZZZ o s i kamu s i si kamu o s i kamu s i kamu is dan dan s q ui hahahahahahaha Yg isa baca bag atas tanpa melengin kpala hebat yang baca ambil melengin kepala dasar hhhmmmmm idiot deh wkwkwkwk AAAAAA kok app saya kluar sendiri tidak jlas gtu kenapa quote from one of my note every continent start end with the same letter in english tiap bnua diawali diakhiri dengan huruf yang sama dalam bhasa inggris stlah hmpir tidak update2X slama sebulan akhirnya on juga yeah saya beneran dihack orang ip addressnya dari US najies untung facebook saya tidak ada ap2x is listening to Free Loveby Cage The Elephant it's pretty good is getting bored zzzzzz V V aduh gawat ini kyknya ada yang nge hack facebook saya teman teman kalau ada yang komen bicara yang aneh2x mohon JGN DILADENIN karena akhir2x ini facebook saya kluar application sendiri begitu Aldrian kamu dan s kamu kamu i kamu o kamu x2 dan s i p kamu dan p kamu s i kakak perempuan 4 s ' i q i kamu sn q snq buset barusan lihat berita masa 4 siswi SMAN dkeluarkan dari sekolah cma gara2x mengkomentari keamanan skulnya ck ck ck ck FREE 520 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP 520 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP all yang sudah kasi happy b'day terutama family friends BBU all 1 lagi smoga ci2x ko2x sama mami Susy hapy2x saja dsana yah titip salam buat manggil apa kenapa sementara uncle dulu uncle Ron pesan smoga semua makhluk hidup makhluk halus berbahagia slalu stay in peace hikz kok yang kasi slamat b'day cma 5 orang trmasuk keluarga sama teman sekolah iya yang laen pada lagi sibuk sedang apa saja Hikz manga sudah kgk bsa lagi terpaksa menghabiskan waktu di FB T T News bagi anda yang membaca manga online terutama manga bleach naruto one piece dan lain lain yang terkenal sudah lama kayak kungfu boy sudah tidak bakal bisa baca manga lagi dikarenakan sekarang semua manga sudah ada hak patennya kgk seperti dulu setelah di survei sebanyak 127 website tidak ada SATU pun yang memperbolehkan membaca manga terkenal maupun tidak terima kasih Let your friends know that you've sent a free gift Guys visit note saya dong COMMENT please yeah akhirnya masuk SMP juga buset sudah anak baru perbandingannya 10 3 sadis amat iya WOOII sekali lagi yang belum tahu besok msuk ke sekolah ada MOS kalau tidak datang sukurin tidak tahu guru2xSMP sama kelasnya bagi yang blom tahu Kamis 8 7 2010 semua yang masuk SMP1 akan mengadakan MOS di sekolah mohon datang karena akan ada pengenalan guru2x pengenalan OSIS dan pengenalan MOS sendiri mohon disebarluaskan oiii kakak cc2x SMP mau bertanya dong MOS pakai sragam apa terus kita teman saya kalau MOS MOS nya itu hari senin ampe rabu menginap di skull benar yah kakak cc2x SMP mohon comment PLIssT T Guys yang main ninja saga dbawah lv 20 pliss naikin lvnya dong stress ini tidak isa lewatin chunin exam ambil raport sama ijazah hri ini ktemu temen2x SD terakhir klinya ampe SMP lumayanlah dapat piala kompu akhirnya SMP juga bosen di SD terus ampe 6 tahun lagi Let your friends know that you've sent a free gift sudah lma tidak update status ini sibuk siapin UAN ternyata tidak sebegitu tegangnya UAN kayak orang lain bilang pls bantuin bangkrut ini See that doll over my pet It's not somekind of Cheat 28 03 2010 ini kadang membosankan yah hahh WOI SMUANYA GW PUNYA WEBSITE BGUS NIH www omongkosong com djamin tertawa deh kalau sudah nge LIAT Note mungkin butuh 2 5 menit ampe kamu selesai Note2 kalau mau saya saranin buka di browser laen nyesel kalau tidak Note3 lebih baik jangan di klik pakai mouse tapi tahan enter tombol di keyboard loh tapi hati2x jangan ampe kelewatan Note4 jangan panik begitu lihat browser kamu kayak kena virus itu memang bagian dari pertunjukkan Jgn langsung tutup browser kamu atau nanti kamu yang RUGI Yg buat Web site ini itu teman saya Namanya Victor Wong masi sekolah alias klas VI Data pembuat Umur 11 tahun Pekerjaan anak SD klas VI beda kelas dia A saya B Nilai Mat hampir smuanya cepe alias seratus Note woi Victor kamu jangan salahin saya iya nanti 25 03 2010 bosen ini blajar buat TO ulangan I need some refeshment see that graduate doll on the window see it maybe it's a bug Photo taken in Pet Society Farm 1 Januari 2010 easter egg I wonder what that be oq ou op os x o ui si is trying to relax so don't bother me and um well nothing selamat hari raya imlek Gong Xi Fa Cai i ix uo poq 2 i i s now playing o kamu di p i iu kamu p kamu s dan dn dan nomor is s di </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks all Sorry baru buka FB GBU all v FOR ALL Thanks iya KHUSUS NITA Thanks yang lain bgs2 vit 1 in malah kucing tapi tidak apa apa terima kasih ayam hahahha tidak tahu sekarang What's on your mind What's on your mind what are you character in harry potter My Result HARRY POTTER dimanakah engkau berhadiah berhadiah siapa yang menemukan tas milik vito akan mendapat ganti sepotong roti dan sepiring cwi mi gilaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa kalau energik kenapa kalau bodoh jauh sama aku wow takut berarti saya jht sekali kenapa main yuuuuuuuuuuukkkkkkkkk kenapa ampuuuuuuuuuuun kenapa jadi tupai wow karena akhirny saya nemuin kombinasi yang tepat in ternyata kita pny kesamaan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensi amal Unity in Diversity 17 Desember 2016 di Binus Kampus Anggrek Seluruh hasil penjualan tiket pensi ini disumbangkan ke Yayasan Anyo Indonesia yaitu suatu yayasan yang membantu anak anak penderita kanker atau penyakit lainnya seperti jantung bocor Rumah Anyo berfungsi sebagai tempat tinggal sementara bagi anak anak penderita kanker dan dapat membawa penderita ke rumah sakit untuk pengobatan lebih lanjut Yayasan Anyo didirikan pada tahun 2012 dengan nama yang berasal dari nama kecil almarhum Andrew Maruli David Manullang putra pendiri YAI Tag instagram di strukturaltfi di pensiamal2016 Check out Shifter Interactive Graphic Novel in the app store starring Wil Wheaton I'm hooked learning Programming on my iPhone Join me and get Mimo at getmimo com download Unrica defeated an opponent after an impressive battle Join Monster Legends now and share your victories together Bellatasya Unrica just unlocked the amazing Octocrush in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica defeated an opponent after an impressive battle Join Monster Legends now and share your victories together Bellatasya Unrica defeated an opponent after an impressive battle Join Monster Legends now and share your victories together Bellatasya Unrica just unlocked the amazing Rodolph in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica overcomes a fearsome boss in Monster Legends Join now and conquer the biggest bosses together Bellatasya Unrica defeated an opponent after an impressive battle Join Monster Legends now and share your victories together Bellatasya Unrica overcomes a fearsome boss in Monster Legends Join now and conquer the biggest bosses together Bellatasya Unrica defeated an opponent after an impressive battle Join Monster Legends now and share your victories together Bellatasya Unrica just unlocked the amazing Boneticore in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica just unlocked the amazing Kimmel's Gift in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica just unlocked the amazing Pandalf in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica just unlocked the amazing Erpham in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica just unlocked the amazing Molem in Monster Legends Join now and gather your own amazing monsters Please visit my blog at resepmakanandaribellatasya blogspot com and feel free to leave comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the first time we enter this school until we leave this school Good luck until we meet again tm2016 sayonara Here's my 2015 Year in Review See yours at facebook com yearinreview nomor more time to waste HMMM D times join with us RTS JAKARTA2014 8 November 2014 only 20 000 idr and you'll get Certificate Lunch and Snack see kamu there D LOL teman teman maaf baru saya post saya baru ketemu semua foto ini rajin belajar dan sampai jumpa lagi Tuhan berkati D teman teman maaf baru saya post saya baru ketemu semua foto ini rajin belajar dan sampai jumpa lagi Tuhan berkati D this is what we call TRUE LOVE true story Battle of fans has begun Be the last one to share for a chance to win 50 CP Promotion can end without warning Lets get ready to rummmbleeeeeeeeeee Claim instant gifts di Join MAA Season 2 Continue Privacy Policy is very boring during the holidays and can not meet all school friends O O I miss 8C Yesus adalah jalan yang menuju kerajaan sorga tanpa penumpahan darah tidak ada pengampunan Ibrani 9 22 Jadi apabila untuk semuanya itu ada pengampunan tidak perlu lagi dipersembahkan korban karena dosa Ibrani 10 18 This is a great friday D I miss all my friend Tidak ada kata terlambat bagi Yesus Happy New Year yeah D merry christmas to all of you D akhirnya bebas dari mid semester wo saya dapat permainan baru semoga kita semua diselamatkan TUHAN Wah gawat banget iya sekarang mickrochip 666 sudah ada di seluruh dunia tempatnya bisa di bank rumah sakit jangan sampai mau di berikan mickrochip di tangan dan di dahi karena tidak bisa dilepas lagi kalau sampai kelepas kita kena reaksi kimia Dapat di beritau ke seluruh agama agar diselamatkan juga apa rasanya iya kalau kita di panggil tuhan dan tidak pernah melihat diri kita di bumi Say something about this Say something about this Say something about this ah sudah lama jekson sudah meninggal lama dan sudah lama kita tidak bertemu dengan jekson mengigat kenagan di PVDS bersama jekson menjadi sangat menyedikan melihat dia sudah di panggil Tuhan enak nya hari libur What's on your mind Katakan sesuatu tentang ini aldi tolong Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini Katakan sesuatu tentang ini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell Account Mobile Legend Rank Glorious Legend x359 Hero 26 Skins 15 GLORIOUS LEGEND GAMEPLAY Glorious Legend Gameplay Dibajak v Lmfao ginter What have you done o o Neymar In Or Nothing BRAGER Full Time Brazil 1 7 Germany 90' Oscar 11' M ller 13' Klose 24' 26' Kroos 29' Khedira 69' Sch rrle Hampir 4 Tahun Maen AQW baru nyadar V If you're an Action RPG Fan then you'll love Bad Nerd Tell your friends I just completed 'Safe My HAIR' on MMORPG School of Chaos I just completed 'Mr Butt's Quest' on MMORPG School of Chaos I just completed 'WAGE A WAR' on MMORPG School of Chaos All Ma Crew I just completed 'Help us' on MMORPG School of Chaos I just completed 'Gym Gold' on Bad Nerd I just completed 'Playground Gold' on Bad Nerd I just completed 'Bright Gold' on Bad Nerd I just completed 'Pebbleswallys' on MMORPG School of Chaos If you love multiplayer games then you will want to join the MMORPG Project Tell your friends I just completed 'Disorder ' on MMORPG School of Chaos If you love multiplayer games then you will want to join the MMORPG Project Tell your friends I just completed 'Full Time END' on MMORPG School of Chaos tertawa I just completed 'Zombie Teachers' on MMORPG School of Chaos I just completed 'Bloomie part1' on MMORPG School of Chaos I just completed 'Zombies ' on MMORPG School of Chaos Leveled up in Global War Online Leveled up in Global War Online Leveled up in Global War Online is a Global War Soldier I'm playing Angry Gran Run Get it yourself Reepz kamu embaressed Us Sincerly Stalkz di YouTube di YouTube Full Version In The Installation di YouTube It's Far Cry 3 Trailer Song di YouTube Best Song FarCry 3 Far Cry 3 di YouTube Juga Mati Lampu Ujungnya Ip Man Sebenernya ini lag habis di format Geniusmeme Porridge Reupload dulu iya minecraft wallpaper genius I've just received a free Minecraft Giftcode You can get one too minecraftcodes me di YouTube I've just received a free Minecraft Giftcode You can get one too minecraftcodes me di YouTube I've just received a free Minecraft Giftcode You can get one too minecraftcodes me di YouTube I've just received a free Minecraft Giftcode You can get one too minecraftcodes me di YouTube lihat kapasitas was it step up 4 di YouTube dude ur the man di YouTube my country film is rock the raid di YouTube 1 Number 3 Best the only fuckin thing you consume is time di YouTube Is Right di YouTube record maan di YouTube was helping not screw it di YouTube tertawa di YouTube seize everything you ever wanted kamu morons di YouTube wayne and em is good better than justingayVEVO di YouTube dog but dawg you nigga di YouTube people like justin bieber di YouTube grenade noob di YouTube Best Genius Ever di YouTube yang lagu di fix dong harusnya you better lose it now in the music that moment you owe it you better never let it go go you only get one shot do not miss your chance to blow this oportunity comes once in a lifetime krauser and leon is friend become enemy ironic di YouTube affraid o O LOL di YouTube di YouTube pro di YouTube big cheese o O it's Chief Mendez di YouTube i love eminem di YouTube mengupload video di YouTube The Expendable 2 Free Facebook Bajak AAAAARGH Malam ini rasanya hampa g tahu knapa xD My Frost IS ALIVE DUMBASS di YouTube Like it My Frost IS ALIVE DUMBASS di YouTube to bad nomor sangat derek frost westbrook I liked a di YouTube video Pitbull International Love ft Chris Brown Like it I liked a di YouTube video Pitbull International Love ft Chris Brown Saya mengupload video di YouTube Introducing My Self Will Be happy If like or subsribe di YouTube mengupload video di YouTube Cs 1 6 Download No survey LoL God kiki god indonesia they using chrome Kunci Mobil Paling Aman dan Paling Murah Like it Full Movie Of VGHS If Happy Ever After did exist I would still be holding you like this All those fairy tales are full of shit One more fucking love song I'll be sick Ahhh Waiting for season 2 Dinding Jebol Like it Foto Lucu Like it God Why Dinding Jebol Like it Foto Lucu Like it New Style Lukisan Bagi Perokok Like it From Indonesia LOL my country di YouTube Like it From Indonesia LOL my country di YouTube Lucu Like it First Epic Samurai Epic Deleted Scene More Fun Like It xD Hasil Selingkuh Sama Monyet Like it I posted a new photo to Facebook Like it Favorite Character In Basara 2 Hero Menjebak Orang Memakai Bir Like it Ketiduran di Atas Roti Like it Tiket VIP Pertandingan Sepak Bola Like it Nasionalisasi Perusahaan Asing Like it Orang Mesum Penuh Harapan Like it Anjing Mabuk Like it LOL Foto Lucu Like it Bayinya Lucu Giginya Like it Memiliki banyak pengalaman dalam hidup dan mampu menginspirasi para siswa dalam berbagai aspek Pekerjaan apa yang aku miliki 10 tahun kemudian Lucu Like it Pendingin mi instan Like it Foto Lucu Like it Kisah Cinta Seekor Anjing dan Like it Sukses membuat pagi yang stress bersama clan ICE WOLF O O Muhammad Arif Basalama Kisah Cinta Seekor Anjing dan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngumpul at Marscity Hotel Punya Sodara xD Retweeted H Risnandar di Hari Risnandar Bapao pelangi mini sehat mantap harga Rp 1500 bapao harga spesial Rp 5000 dapat 4 bapao minat l4nthink Capricornous di CapricornAddict capricorn tidak suka sama pasangan yang ribet doyan yang simple tapi luarbiasa Find Out Your Facebook Profile Analyzer Result o Wow Skor kemarahan saya 20 80 Pemberani dan 20 Penakut this is My happy experience Hope enjoy it though it's a bit late X Mia 4 Retweeted Fakta Faktanya WOW di WOWFakta Hanya 70 persen orang akan mengerti hal ini 2 2 Ikan 3 3 Delapan 7 7 Segitiga Retweet jika Anda mengerti Retweeted Fakta Faktanya WOW di WOWFakta 1 x 2 x 3 x 4 x 5 x 6 x 7 x 8 x 9 x 10 detik 6 minggu Retweeted true di damnitstrue CLICK ON THE PICTURE Fakta Faktanya WOW di WOWFakta Persamaan otak orang gila dan orang jenius adalah keduanya sama sama memiliki kemampuan yang rendah dalam memfilter informasi yang diterimanya Retweeted Fakta Faktanya WOW di WOWFakta Orang cerdas lebih sering bicara pada dirinya sendiri Retweeted Bahasa Tubuh di BahasaTubuh Menggoyangkan kaki saat posisi duduk menandakan seseorang dalam keadaan nyaman tenang dan menikmati situasi tersebut Retweeted Fakta Faktanya WOW di WOWFakta Di Amerika gamer profesional dianggap setara dengan atlet profesional It's my first song on SoundCloud Retweeted true di damnitstrue I love sleep You forget about pain problems stress everything for a while I just defeated Amar in a challenge di poolbyminiclip AMEY di Amelevans happy new year ma bestiehhh di randyraa di lindogatotp Oscar Amelindoscarandy Retweeted Nathasya Priskila di nathasyasudaly Happy New Year di 9aUnited di AlvienGunawan01 di alvien gunawan di samuel goodboy di rondadrian di shandyfranky di Chrisna Stark di lindogatotp di randyraa Retweeted Dea Baptista di DeaBpattinson Happy new year 2014 di shandyfranky di rondadrian di randyraa Thanks iya Buat yang sudah ucapin Task Uncle John Chika di chikarema Kangen randy yak Wwkw di Amelevans di randyraa wkwkdi MentionTo MentionTo your friends who always recycle their used papers Retweeted Dedy Corbuzer di DedyCorbuzer Masa depan anda tidak tergantung pada nilai sekolah anda masa depan anda berada di tangan anda sendiri Retweeted Story Of My Life di Derpey Mom Come down it's dinner time Me In a few minutes Mom NOW Me Ok downstairs Me Where's dinner Mom It will be ready in 10 minutes Retweeted Story Of My Life di Derpey I pretend i dont care but deep down I really still don't care Retweeted Story Of My Life di Derpey Home is where you can poop peacefully Retweeted Story Of My Life di Derpey I'm not lazy I'm on energy saving mode Retweeted Story Of My Life di Derpey If I don't text back it's because I replied in my mind but was too lazy to physically reply and I'm really maaf Retweeted Story Of My Life di Derpey how do people even fucking sleep with night lights my room needs to be as dark as my soul Retweeted Story Of My Life di Derpey It's always fun listening to someone's lie when you already know the truth Retweeted Ramalan Indonesia di TweetRAMALAN Capricorn memiliki sifat serius dan berhati hati dan tidak rentan tentang menampilkan emsional Retweeted Ramalan Indonesia di TweetRAMALAN Capricorn mungkin tidak mau mematuhi aturan jika mereka melihat tidak ada alasan atau tidak setuju Retweeted Dea Baptista di DeaBpattinson Selamat hari raya Idul Adha GBU di Kris CMathijs di Amelevans di DanuDeswara di evie noviani di randyraa di dery julia Mom Why is your room always so messy Me So that if someone comes in and tries to kill me they ll trip over something and die When I hear myself eating crunchy food I wonder if people can hear it too Retweeted Story Of My Life di Derpey It's funny bc people think im quiet but im just listening to everyones convos and figuring out ur weaknesses to destroy kamu later in life there s a hutRAMALAN Capricorn adalah mereka yang cukup sabar dan cenderung tidak terburu buru dalam melakukan segala hal Retweeted Ramalan Indonesia di TweetRAMALAN Pria Capricorn memiliki tatapan mata yang tajam yang menarik bersikap tenang ramah pandai bergaul Me Retweeted Ramalan Indonesia di TweetRAMALAN Capricorn biasanya tergantung hati hati tegas dan tidak tergoyahkan dalam menghadapi kesulitan Retweeted Ramalan Indonesia di TweetRAMALAN Capricorn adalah pribadi yang sangat berkharisma tegas dan juga tanggung jawab Retweeted Anime Kartun di KartunWords Tidak ada yang salah dengan dunia ini yang salah adalah manusia sombong yang merasa memilikinya Near Death Note Retweeted Anime Kartun di KartunWords Rasa takut tidaklah jahat dia hanya memberitahu apa kelemahanmu Gildarts Fairy Tail Retweeted Anime Kartun di KartunWords Kenangan indah masa lalu hanya untuk dikenang bukan untuk diingat ingat Sasuke Naruto Retweeted Anime Kartun di KartunWords Aku tidak perlu mengikuti cara orang lain cukup aku lakukan dengan caraku sendiri Ouma Shu Guilt Crown White Beard Hibari Hibari Kyouya Retweeted Kamus Dewasa di Kamus Dewasa Hanya pribadi lemah yang beranggapan bahwa semua sesuatu yang seharusnya dengan mudah dikerjakannya tetapi SULIT See the KO God Valdi Japar Giraldo Alexander Macho Anime Logic am i just dreaming Valdi Japar Giraldo Alexander Handi Hasan Uchiha Spongebob </t>
+  </si>
+  <si>
+    <t xml:space="preserve">friendsday Congratulation to MOBIUS FINAL FANTASY for hitting 8 888 888 registered users worldwide Albertus Angga sini lihat dong V what the hell is this life what a fucking crazy life XD yeye No one knows me No one trust me rate see all the way you like but sun always stands alone sayang whatever you want but not anyone want to close with sun feel whatever you like but sun is so bright that nomor one can see it with bare eyes even sun is the center but your egoism is the one that make you think that you are the center and you forget what is the most crucial thing for this galaxy kok rugi iya jual corare Cuma di bid 30k what an odd way to live MY LIFE IS SO ODD Trolling life D tersadar bahwa 'dia' sudah tiba hanya tinggal menunggu 'rumah'nya dibangun 'pasukan'nya berkumpul dan tidak lama lagi 'dia' akan 'duduk' di atas sana dan berkata bahwa 'dia'lah sang 'raja' dimana hari itu pula aku akan pergi meninggalkan semuanya tanpa satupun yang kusesali lupa lagi tambah pikun wkawka HBD us XD be better us XD wkawka ngomongdewe wogh keren william rank 12 XDXD aku menang cuy wkawkawa be happy iya XD lagi aku bisa di tengah sperti yang tak prediksikan menunggu dalam diam sendiri tanpa reaksi diam tanpa ekspresi aaaaaaa alone XD dikacangin tingkat dewa XD ini keren XD hoammzz bosen bermain jadi orang baek kok habis tak lihat lagi rasanya gagal lagi yang ini waktu terus berjalan membawa kita semua ke dalam akhir yang sama akhir dari hidup hmmm bisa tidak iya aku membuatnya bahagia memang aku ini contoh orang GAGAL serba salah this world is my enemy so something to be alone in this world Gini iya kira designe nanti kalau ada yang tidak setuju comment saja FONTTT apa iya senang apik Feel like I am nothing And you're right that I always alone Haha try to die with smile just trying to get what kamu wanted arek x 4 mohon jika sudah ada grup aku di ikutkan kalau tidak ada seseorang buat dong tugas sana tugas sini tidak ada habisnya What do you call an forever friendship Is it really exist EDMODO sangat sepi Paling benci masa baru masuk skolah sabar yoo full of bullshit starting to hate myself open this if you dare wah seru tertawa All I ever tried to do for him was the right thing and it only ever made things worse Rachel The Ring 2002 i want to forget someone but i can't i want to delete all of my memories someone still can't when i realize my memories is so full of someone '' then just get out of my mind lonely D everytime someone add me just confirm it but whenever something show me that it has one sided meaning i just think ooh just like that just being kind to me for him her self shit status tidak jelas andaikan aku hulk pasti tidak akan tenang ini dunia who likes yuri genre comment plz Apa yang anda pikirkan Tidak ada benar tidak ada ajarkan aku logaritma lagi aku lupa sword art online infinity moment ok daa kalau begitu saya off ajah slamat malam he hampir semua statusku dihancurkan oleh mereka saat manusia berbohong mereka selalu berpikir tentang kebohongan2 lain bila mereka ketahuan saat manusia jujur mereka tidak pernah memikirkan kejujuran di masa depan mereka facebook g iso dbuka '' Kamen Rider I never confident with my looks But I confident with my honest emosii masa lalu itu bagian dari diri kita yang membuat kita bisa menjadi seperti yang sekarang ini true story tertawa the best I wish my dream come true jadi teringat masa lalu '' azz pusing kah download tidak mari2 ayooo download kurang 7 jam lagi nasib '' galau '' tertawa apa iya film senang apik tugas2 kok sek onok ae '' kapan kon matine hidup itu melelahkan keren coy ngerii habis main corpse party hantunya bikin merinding kok mari lampu iya perasaan tadi oke oke ajah Friendz Kite semua masuk sekolah tanggal brpa zich Oi rek isa kasih tahu tidak sapaan senang tinggal kelas T T P s Buat yang g naek I miss U Go for EURO 2012 deus created SmartMF on Freerice I just earned 2000 grains of rice to feed the hungry on Freerice com I just earned 1500 grains of rice to feed the hungry on Freerice com I just answered 75 questions in a row on 20Freerice com I earned 500 grains of rice to feed the hungry on Freerice com lumayan libur males AHHHHH Lelet Download tidak mari mari tampannya diriku wkwkwkwk ''Mbajidin'' I love kamu ninja saga forever Is this your favourite fish so far yess aduchhh enak ujan adem seru hehehe ok selamat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk show Data Science bersama pak Risman dari Samsung dan pak Dipta dari Amartha dengan moderator pak Alexander Agung dan ibu Yulyani Arifin Menuangkan yang sudah dipelajari dan dicoba selama 1 5 tahun terakhir ke dalam satu tulisan utuh memang sangat tidak mudah Tetap semangat Congratulations for the achievement Rafael Herman Yosef Willson Wijaya Albert Darmawan coach Felix Jingga Proud of you Whatever the situation condition and bad atmosphere around you stay calm and keep positive None of negative things will win Meet up with junior high school seatmate yet U S citizen already hahaha 11 years since last time we met isn't it di 333lucas bestfriend highschool nostalgic childhood Apa itu Data Science Mari belajar mengenai ilmu yang lagi happening belakangan ini Untuk semua mahasiswa SoCS silakan ikut serta di dalam talk show ini limited seat silakan secepatnya mendaftar Binus BCA Funtastic Moment PPTI BCA Appreciation Day Juara 1 2 dan 3 Luar biasa Congratulations Jollybee BINUS My NLP natural language processing class today they were learning about computational semantics specifically by using lambda calculus dosen mahasiswa pendidikan binus kampus belajar kelas Jollybee BINUS goes to U S for World Final ACM ICPC 2017 Good luck team Albert Darmawan Willson Wijaya Rafael Herman Yosef Felix Jingga Yen Lina Prasetio BINUS UNIVERSITY presents iOS Foundation Program iOS Foundation Program adalah program khusus mahasiswa aktif Binus yang dirancang untuk membantu kamu membuat aplikasi sekaligus mendalami software development process pada iOS Program kolaborasi dengan Apple ini dirancang menggunakan Swift dengan innovation framework yang unik yang pastinya membantu kamu mewujudkan ide ide brilian menjadi nyata So kosongin waktu kamu mulai 19 21 Juni dilanjutkan 3 28 Juli 2017 Senin s di Jumat jam 09 00 13 00 di Kampus BINUS University Alam Sutera Daftarkan Segera Tempat Terbatas Gelombang 1 17 26 Mei 2017 Gelombang 2 29 Mei 2 Juni 2017 Ambil form registrasi dan daftarin diri kamu di salah satu lokasi ini 1 Ruang Admisi BINUS UNIVERSITY Lantai 1 Kampus BINUS University Alam Sutera 2 BINUS CENTER Syahdan 3 BINUS CENTER FX Sudirman Ga usa khawatir Buat kamu yang qualified aktif dan berkomitmen penuh hingga akhir program program ini GRATIS dan kami juga meminjamkan Macbook Pro dan iPhone selama program berlangsung For more information please contact Ms Natalia Ms Natasha Mr Kelvin Telp 088801008385 WA 088212273919 Email iosprogramdi binus edu 2nd Call for Paper Due date 20 June 2017 Notification date 31 July 2017 Venue Bali Dynasty Resort Bali Indonesia Maliq D'Essentials at Binus Employee Award 2017 binusemployeeaward2017 binusuniversity Menristek Dikti Jangan Khawatir kalau Tak Mampu Negara Akan Biayai Menristekdikti Mohamad Nasir meminta calon mahasiswa dari masyarakat tidak mampu untuk tidak khawatir terkait biaya melanjutkan pendidikan Binus Employee Award 2017 Don't worry about the depth of the sea just learn how to swim swimming relaxing weekend home renang santai akhirpekan rumah Udah temenan di FB sebelum ketemu iya Mei Happy Birthday Meiliana Kheng D Sampe di meja kerja terharu ada yang kasi beginian Abis terharu langsung sedih memang aku segendut itu iya HIMTI Farewell 2017 They are the students who did responsibility more than they have to Success will surely follow all of your pathways Good luck teman teman di himti binus di socsbinusuniv himtibinus himtifarewell binus binusuniversity Dear all SoCS students hari senin dan selasa 8 9 Mei ada 2 agenda seminar internasional di Kampus Anggrek dan Kampus Alam Sutera silakan untuk bisa diikuti Terima kasih Go go go original old female young faceapp kekinian hahaha Ngobrol2 di makan siang bersama teman yang bertugas di daerah perbatasan Indonesia dengan negara lain teringat ke film ini Tanah Surga 2012 cc Muhsin Shodiq Rapat bersama sebagian pengurus inti asosiasi INACL Indonesian Association for Computational Lingustics dosen pendidikan universitas Indonesia Rapat rutin INACL Indonesian Association for Computational Lingustics Selamat hari pendidikan nasional cerdaslahbangsaku Selamat hari pendidikan nasional cerdaslahbangsaku Bu dosen usil kapan aktif ngajar lagi hahaha Selamat hari buruh Snapshot of my research papers with students lecturers and colleagues It was Happy long weekend semuanyaaaaa Yang masih UTS yang sabar yaaaaa In quietness and trust is my strength isaiah bible scenery view garden cloud Run meeting hari ini Universitas Padjajaran atas Universitas Katolik Parahyangan bawah meeting collaboration university Mantap Tulisan dari Prof Tirta N Mursitama tidak tahu lagi dahhh kesannya kok PhD lama benar iya kelarnya morning hosh Aryo Pradipta Gema Suhendro Winton Theodorus David Ini lab lain yang mainnya di Argumentation Mining selain Darmstadt Facebook is building brain computer interfaces for typing and skin hearing Call for Paper Deadline for full paper submission May 01 2017 Notification of paper acceptance July 31 2017 Deadline for final paper submission August 20 2017 Deadline for Registration August 31 2017 Conference October 13 14 2017 cc School of Computer Science BINUS University Fredy Purnomo Yen Lina Prasetio Evawaty Tanuar Gabriella Jeklin Violitta Yesmaya Novita Hanafiah Meiliana Kheng Yulyani Arifin Bayu Kanigoro Dewi Suryani Ferdinand Ariandy Azani Cempaka Sari Hanry Ham Hady Pranoto Rini Wongso Afan Galih Salman Michael Yosep Andry Chowanda Rojali Saleh Aditya Kurniawan Widodo Budiharto Lili Ayu Wulandhari Natalia Chandra Sonya Rapinta Manalu Aswin Wibisurya Yogi Udjaja Yohan Muliono Syarifah Diana Permai Ohyver Etha Rhio Sutoyo Edy Irwansyah Irene Anindaputri Iswanto Alexander Agung Santoso Gunawan Count me in Kenapa conference conference khusus NLP banyak yang tidak diindeks Scopus kesel sebel heran My forever thinner and taller best brother 88and89 Happy Good Friday God bless Congratulation untuk tim School of Computer Science BINUS University Michelle Nesya Cyber Security Program dan Eric Software Laboratory Center yang berhasil meraih peringkat 1 Line Dev Challenge Indonesia MoU kerjasama antara Esri Indonesia dengan Binus University untuk penyerahan lisensi software ArcGIS dihadiri oleh Walikota Tangerang pak Arief Rachadiono Dear all Computer Science students silakan bisa hadir di seminar siang hari ini dari Coventry University U K yang akan dibawakan oleh Dr Maurice Hendrix Welcome to PhD life teman teman Tetap semangat Come and join the 2nd ICCSCI 2017 Ong Anneke Dwi Sesarika Rahmanto Williem Lex Paper pertama dari skripsi kalian sudah online iya Bimbingan 3 1 Internship hari ini Is this a true story again Six months later only God understands Menperin menyatakan untuk tahap awal Apple akan bekerja sama dengan Universitas Bina Nusantara Binus untuk train of trainer karena perusahaan itu membutuhkan tenaga pengajar proudtobeBinusian HIMTI is my favourite D Sekali kali share thread kaskus ahhh cc Alexander Agung Andry Chowanda Congrats di BINUS BGP for having new Master degree program Master of Strategic Marketing Communication S2KomunikasiBINUS Dear all students berikut ini langkah langkah untuk memanfaatkan Google Scholar dan Mendeley dalam penulisan karya ilmiah seperti skripsi dan lain lain Semua guideline ini didokumentasikan dengan rapi oleh bapak Rhio Sutoyo Terima kasih pak Kereta api Sembrani masa kini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tolong iya yang namanya facebook Adeliana Yuwonno itu bukan saya tapi tidak tahu siapa jangan di accept thankyou ABSURD Sofi's bday surprise Thankyou Kara Floral Headband Missyousodamnmuch Happy Chinese New Year D playing free rice again D 7a ' FORWARD success D Y GREAT PrayForReportCard O kangen ch Thank you for this day craziest fieldtrip suara habis nice D We'll show you what we're made of Let see MarioMaurer 3 AFRAID Solo The Spirit of Java At GI with Ivan Tasia kim ko bozra andrew ko sammy listen my heello di delchocolatos lalalala Its my last day on 12 years P I'm addicted and I just can't get enough P kenapa di setiap pertemuan harus ada perpisahan saya benci itu terima kasih D pray for my sister aku salah apa whatever tomorrow school hope will get same class mengeluh without miss jovelyn wish me luck want to school with 7a with Miss Jovelyn ' kpan yaa ketemu sisca lagi ' at MAG byebye sisca at Gading w michelle sisca black out grr byee anyer bye miss Jovelyn Delos Santos miss you Arrived Jakarta now eating nasi pedas hahh just arrived bali D omwt Soetta besok D bali w michelle terima kasih D it's finish great menginap at tasia's w preysi stella D eh semua add pin bb saya yang baru yaa yang mau minta saja messages ke saya D science fail bisma p nice barca kenapa rumah langsung sepi every moment with you is the sweetest one 7a 3 we love you miss jovelyn '' you are the best teacher I ever had ' book launching success ' i'm going to miss you Miss Jov hp saya terlalu bagus ccd hari ini gamasuk sekolah big girls don't cry ' happy birthday Jeremy Yts p nyesek ' Preysi's party birthday di alma's D fun happy birthday my beloved brother D kakak adry OOOMGG these teman teman are visiing my profile o Agatha Verencia 1136 views 'Nita' Jeanita 983 views Agung Kurniawan 542 views Adam Ravansya 300 views See who views your profile di 3 Frankestein D Jessica Vanelisa Stella Ella Preysi Reveni dari kemarin pada ganti gantian tidak masuk masuk semua seperti sepi ulangan ipa sma science aaaaaa Happy birthday Mr Romeo D on the way   sedang di jalan bandung With al x di tasik RIP Pak Frans matematika itu gampang ' we love you penasaran play with Stella Ella Jessica Vanelisa p prepare something just stay ' huah they are lucky ' 2months more maafin saya rifky ' 3 kids company 3 sm sh 3 secondhand 3 jb 3 michael buble 3 taylor swift 3 nomor more mellow sayang nomor to galau kenapa pengen fixie hoam kangen mr jusber ' nomor more mellow sayang nomor to galau D smash senyum semangat yes success D terima kasih kemarin main sma preysi ci bel ko hansel ivan XD bismaaa morgaan 3 yah mau ikut bsok aaa saya leleh dngernya T T penasaran nw kambing jantan the movie aaaaaaa fruit tea gila XD 3 bm p makasi lebai banget jijik wkkw lebai banget jijik wkkw sakit banget tadi jatoh pas handstand i close my eyes and i can see a better day D yeay my love my love my love 3 basket michael buble 3 Felicia Layrensius kita punya mama baru D pray for doraemon miiko shinchan and japan O badmood tingkat tinggi grr you know that i love you p penyu baru 3 freerice ym terima kasih I'm feeling good today Ka ola's birthday party D freerice calm down please i want to meet you one more please i want to know your name ' dynasty yea tahu kok jps kalah sadar tapi phi gausah ngata2in juga uleadnya tidak bisa di lap saya x x az woy cewek lebai ngaca plisss D woy cewek lebai ngaca plisss D poster jb nya kena air ' gapeduligapeduligapeduligapeduligapedulipokoknyagapeduli gaikutan masalah phi jps titik ko Fransiskus Hansel ceriaa D cacat nama saya jadi kentang Stevie Liardi perkedel sam akentang jauh kemarin jps main sama ceha XD basket Gila gilaan hai hai you you i want to be your girlfriend niat nya sih mau cari lagu buat cheers bahkan online p kwkw saya nyerah deh nyarinya kemarin gading sama stella jeve kelvin albert hari ini sama jesaya preysi albert kelvin aldo rifky baru pulang akwka D sick memang facebook mau diblok glee sumpah geli sama kamu Abu merapi chat w Stella Ella viking bocah nekat sama sajaa ulalala bangga kok sama indo kenapa main fair sportif kalah kalah lalala argh 3 0 najis dari awal sudah bikin indo down curang copo najis malay norak pakai laser petasan apa coba curang culun di jogja besok jogjaa D sampeeeeeee on the way   sedang di jalan solo besok pada gading iya saya solo bbye D party bajak facebook sii adel D wkkw bikin pudding w stella jeve on the way   sedang di jalan cempaka mas with stella celine jeve monic gitta D buat yang merasa copycat nyadar iya please keterlaluan tahu Michael Akas Wicaksono makasi DD terharu saya wkkaa apabanget nyebelin HAHA still at school D practice i will be right here waiting for you ' terima kasih for this day Theresia Renata Shania Junianatha Felita Dewitama agnes DD Seru xD main sama tere shania fefe agnes D semoga hari ini jadi amin try the best for you you you ' study study study </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yearinreview2016 Andi Stn Adrian Crisandy Michael Benedict 5 25 Tired of your plain Old Ragnarok Server The wait is over AUDACITY RAGNAROK ONLINE Basic Information Founded 2 22 2015 Server Open Beta Test 2 22 2015 2 28 2015 Server Opened 3 8 2015 Website Server Pre Renewal Max Base Job Level 750 250 Base and Job Exp Rates 175000x 175000x Max Stats 1000 Max HP SP 20000000 5000000 Drop rate 100 for everything Disabled Third Jobs No Stat Seller Server Mode Normal Roleplay PK 4 slotted equips except shields which is 2 slots Perfect Dodge Enabled 50 Max AntiWPE RPE EditedGRF enabled AudacityRO Features Full Mall with Cards Ready to PvP Custom Headgears Custom Main Town Guild Owned Gold Room Custom PvP System Costume System NPC Afk System di afk Dungeon Instances Endless Tower Nidhoggur's Nest Coming Soon Custom PvP Maps with custom BGM's Fixed Currency to Promote Economy Resist Based Gameplay Switching Melee and Skill based gameplay Automated Events Dragon Ball Z Quest Custom Refining System Hunting Missions Quests Fishing System Modified War of Emperium 1 0 and 2 0 Stage Game Casino NPC's Slot Machine and Headgear Gacha Custom MvP Mobs The Seven Deadly Sins Nanatsu nomor Taizai Reference Sacred Weapon Quest Pokemon and Naruto Pets Housing System Coming Soon Battle Grounds Coming Soon Download links Full Client Torrent Link Lite Client Torrent Link Register here bubar diganti Ngabuburit yang isinya dia juga ampun indonesia me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can tertawa ohh nice picture D something dies i wonder if it's really all over That's why it feels so sad No It's not Over as long as someone remembers it's never over ' ' e ' ' First FPS game on Facebook FPS game on Facebook masuk GM nya tega banget Maintenance ampe jam segini dari jam 9 pagi Lag DISAAT DAKU TUA PLEASE READ OOOMGG these teman teman are visiing my profile o Daud Kurniawan 1136 views Aldy Pratama 983 views Febriana Tindaon 542 views Brandon Lee 300 views See who views your profile di wait and see I'm going to show you what true really is because there is only one truth There's No Win Or Lose In This No Higher Or Lower There Is Always Only One Truth Hoo jadi banyak juga yang sudah bangun sama nggk tidur semalem good good wakakakakaka monyet BB saya matot nggk bisa di cas nggk bisa di nyalain zzz suram Friend FB 100 Pas wkwkkwkwkwkw Friend FB 100 Pas wkwkkwkwkwkw Bagusan Top Banner Yang IDIOT i saw you for the first time i know you were the one you didn't sayang a word to me but love was in the air then you held my hand pulled me into your world from then on my life has change for me now i never feel lonely again cause you're in my life Love how can i explain to you the way i feel inside when i think of you Then you held my hand pulled me into your word from then on my life has change for you now i never feel lonely again cos you're in my life When i saw you for the first time i knew you were the one On the wings of death by the hands of doom By the darkest light from the darkest moon Crossing silent seas over mountains high For we stand as one tonight On the black wind forever we ride on together Destroying your evil with freedom our guide When the master will storm us He'll stand high before us Our hearts filled with splendour Our swords will shine over the light I Want To Get Back The Strength I Lost Physicx bagi bagi wkwkkwkw goblok woi riki keffas di panggil sama Ws </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT MADRID 0 0 MUNCHEN halamadrid Mau dapat CS GO Skin Gratis tanpa Deposit JUDY SkinSilo adalah petunjuknya xd Link Login via Steam Terus ke Tab REWARDS Isi email trade url dan lain lain ikutin petunjuk saja pakai Referral code saya SAMUELHALIM dapat 250peluru coin habis itu kalau sudah kelar semua kamu bakal dapat 350peluru kalau mau cari koin lagi ke tab EARN CREDITS nah kamu ikutin saja semua disitu nanti dapat coin AntiJUDY 0ToSKIN Hery Franky Victor Franky Kevin Tj Dimas Arsaya Mi Chael Daniel Agung ijin tag bos Wtb gamesteam rate terendah new video is up teman teman Yg pingin lihat orang gans main dota csgo dan lain lain tlg di subs iya Youtube com channel UCzmZnH993iw vAWa0BBKkHQ Makasiiii go Mantap jiwa Foto sama mantan Fnatic 8k mmr in one picture Noob am Steven Bonny Oriel Mihawk Victor Franky Hery Franky Hery Franky tidak buat kamu Yg jual gold dragon nest servee void PM Just one last dance Hery Franky Ajaran hery Hery Franky 1 more God pls indonesia Chroma for the win Kelakuan anak mu miss Nana Podungge Pake sandal di kampus D Wts game csgo di 100k stok banyak Line sam 2107 Djing Tj WTS Adidas NMD R1 ukuran US 9 5 asli UK Yang pasti tidak ada di Asia Barang baru sampai di indo 30 setember PM for price thank you 777 The one and only Cant wait Joki pokemon go Lvl 1 15 100 rb Lvl 1 20 150rb Lvl 1 25 200 rb Lvl 1 30 275 rb No softban Aman Line sam 2107 No hp 082226119865 Pake google bsa pakai ptc bisa Wts dari pada berdebu Minat pm saja Lunchhh WTS ATHREOS GOD di 100k Todays draft keep Nb kalau ke semarang cari Lumpia buat oleh2 ke icipy iya p Wts Scg x10 Todays pre WTB Nissa PW origins Lilliana PW origins Thunderbreak regent Gameday promo Korean Shit got real Pending dulu Erick Widjaya Rinto KUr Dea Vania Vito Alexander Harliyanto Canceled Shit Must read Aji aji dulu kamu pahlawan sekarang What the fuck RONALDOO JUVENITI WE CANT HEAR YOU NOWWW PENALTY ISCOO 1 MOREE WE ARE STILL ALIVE Mei Chen Font number milan nocerino 20k exc ongkos kirim FOR SALE JEREMY SCOTT FOIL WINGS sizs 43 1 3 BNIB Brand New In Box Cp 082226119865 7CA4568F Khusus yang tahu saja iya Vito Alexander Harliyanto Mx Wkwkwk 51 kalian berapa Alex Snow Devin Christian Save dulu baca nanti Haha Devin Christian Alex Snow Devin Christian Jengkel Devin Christian Narsis dulu Alex Snow Cantik tidak vin Devin Christian Devin Christian Alex Snow Jeff Choi my girlfriend Sleepover in Alex Snow's room It occurs to me that for each and every one of you on my friends list I catch myself looking at your pictures sharing jokes and news as well as support during good and bad times I'm also happy to have you among my friends We will see who will take the time to read this message until the end I'm going to be watching to see who takes care of the friendship just like me So if you are reading this then thank you for being a part of my life So leave ONE WORD on how we met DON'T SHARE Once you respond I will inbox you this copy then paste on your wall so I can leave one word for you Ronaldoooooo halamadrid Mantap ini pitt Fia Kreuz Sedih hahah Semoga sadar Fia Kreuz Semoga gol tadi memang tanda2 baik dan di bolehkan Mengapa oh mengapa All i can sayang is i was enchanted to meet you Be thankfull of what you have cause something that you did will never get back but there are manythings you can learn for what you have done in the past Its over Mantap lah kapten ferdinand 1 0 3 goals to go Come on guysss 2 2 800k pm saja Sfccc Persija 3 5 sfc Next sfc lawan arema yoo hajar Ready 1 Minipom jantan Snow white stb bulu kapas Glamour 3 2 jt 2 Minipom jantan Non stb White Unyu2 1 7jt 3 Husky gajah Top Mata biru 2 5 bulan Gede 7 jt 4 Doberman jantan Non stb Potong ekor Vaksin 2 jt 5 Pitbull jantan betina non stb Prospek sporting Harga 1 2 1 6 jt 6 Pitbull jantan betina Stb Prospek sporting Harga 1 950 7 Chh jantan 7 bulan Stb Warna menarik 1 050 rb 8 Golden jantan Cucu import USA 2 blnan 2 4 free ongkos kirim jawa 9 Bully 3 jantan 1 betina 3 bulan Stb Kupir 3 7jt M 10 Malamute betina 6 bulan Anak import Harga 6 5 8 5 jt 11 Pug jantan 2 bulan Stb 2jt 12 Chh Jantan 3 bulan Stb 1 8 free ongkos kirim jawa 13 Husky indukan 3 tahun Stb Bntr lagi loop 2 050 free ongkos kirim 14 Corgi jantan 4 bulan Anak import 3 7 jt 15 Bully indukan 1 tahun Stb 3 2 jt 082226119865 7CA4568F Turun harga yang putig saja Rvp Mata Wazza Monyet pintar Gua kreo ini Nanna Lee Barca serikah Yuhu Wtf For sale gucci belt made in italy Khusus yang tahu saja Uda besar iya sekarang kamu Sakit ati lek ndelok profile e wong kui BU kok terusan di 125k free ongkos kirim ambil semua di 100k Jatidiri saja jauh lebih baik dari ini stadion v MAY GOD BLESS INDOBESIA NOTHINGISIMPOSSIBLE Rugi maning rugi maning 1 1 akhir ny Pssi asuuuu Seneng e ketemu orang tuany Evan dimas josss Van dijk 1 0 Right Senam pagi bersama ibu guru Ida Jokam Safitri Shofia Yusuf Selamat persib puasa 19 tahun akhir ny selesai v Mental juara Trus vladimir di apa in tuhh Diving oh diving PERSIPURA German 1986 jaspo M Muluss 300k excl ongkos kirim 7CA4568F 082226119865 Haduh smalling Reussssssa Herpes meneh auuuu Nanna Lee Tyas Putri Anjarini Ida Jokam Safitri Shofia Yusuf do you miss us Tyas Putri Anjarini Devin Christian Vito Alexander Harliyanto Alexis Snow Tyas Putri Anjarini Ryan Hartley Alexis Snow Devin Christian Benzemaaa Pepe 2 1 Kroos still the best Ronaldoooooooo 1 1 Ea pique jadi kiper 2x Come on benzemaaa Classico time 3 oh 3 2 0 broo benzema kroos class Sup looserpool 1 0 CR7 Dompet oh dompet kimpet Bukan karung iya v Since i dont go to gym my weight loss 3 kgs Weird Semeru oh semeru Gaya classic lah v Kesepian gilaa Ngakak lihat Fia Kreuz ketakutan nonton annabelle Alexis Snow Nanna Lee Vito Alexander Harliyanto Alexis Snow Devin Christian Samuel Johan 16 days to go Sama siapa hayo Ea kalah Freak Minhooooo Asikkkkk 3 1 Malah reall madrid c wkakakak Real madrid b kirain castilla v Asu kabeh All the shit that you do Kere hore di 250k inc ongkos kirim khusus hari ini 2 1 nah lohh kuwait v Tiboooo 1 1 Low class Ini malam madrid kalah bisa gila Vito Alexander Harliyanto Wednesday friday saturday sunday futsal josssss kenapa Look at me do i look affraid Madrid main jam berapa iya Setuju Ketemu mr bob di s2 itu awkward wkakakakak Im forever yours Ketika emosi mengalahkan segalanya Fia Kreuz Andy Kim Happy birthday my girl Wish you all the best May all your dreams come true God bless you Anjrit ini sebelah bau parfum ala arab badan kira2 110 kg masih make up terus saja sadar diri oittttt Bs facebook an chat tidak di balas sakitati Ceritanya candid Pulang pulang budal Waktunya judi coy Lanang ra tahu diri Monyet pinter Bee Enakkkk Sooo saddd Welcoming party There is telo Time for taking restttt Hk Suttle suwi pesawat delay kacauuu GOOD LUCK DI MARIA Kudu sabar D Hawa2 di tinggal turu Laper pengen mcd malem2 modar Miss you already Haduuu 1 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow best moment ever I'll go to china if this is true It's me took 3rd place in death match in 'Outpost' level Check out this performance of This Love on Sing took 2nd place by score in zone control in 'Trainyard' level Check out this performance of Baby on Sing Check out this performance of Gangnam Style on Sing Great filzxhintz has enough experience to reach a new level hoho Great filzxhintz has enough experience to reach a new level Great filzxhintz has enough experience to reach a new level yeah have fun yeah Great filzxhintz has enough experience to reach a new level You make me falling in love with you 3 Crazy 3 lucu I'm so lonely broken angel 3 her so much With tutut Mas po and vincent wkawka Ryan I love you Me Mr Adi Edward and Vincent You're the Only One Never give up No matter how weak you are gila P cute 3 her D You're My Ice Cream You're My Dreams ngeseli di china Nest sudah muncul di gemscool Ayo kita main bareng bareng lagi Buat guild lagi terus hajar manticore dan apocalypse Yang mau masuk guild nanti bisa add FB saya Tinggal Nunggu patchnya saja Go DN Gamerz One In A Million Double Protection from the insects On Again RezpectorZz is such a drag need volunteers to play DN and help me with my quest Need it Heroes cara cash cherry credits Party Time Please play DN and join my guild HunterDazz this is a link to download DN file diskotikan Gila Dewa skillnya Members in my guild to Fwar every day Love nomor one Trust nomor one Believe nomor one LTB Just for Gamerz dino mode balapan hahahaha promosi promosi apa yang enak oh gila aku copo I wanna be free So sad many tests next week and tomorrow NeCheez Man Necheezzz Bagi orang orang yang pensiun PB bisgini ada DinoMode yang mengasyikan Ini adalah orang2 yang akan mewakili surabaya dalam kejuaraan LS Slamat bwt Hydro Thunder dropdropdropdropdropdorp bassbassbassbassbassbass wow ah baru pulang rumah nanti mlm tugas bertumpuk semua TQ Put Your Hands Up Ge Ge Ge nomor Kitaro klek klok klek klek klok what a bad day Wow cool man Betapa miskin saya Always anime I love Fairy Tail Ferarri di depan hotel jw marr ot jakarta Pengen liburan tros enaknya jalan jalan di mall jakarta sama karyawan kantor yang juga gamer sudah di jakarta 4 hari filz Stick Golf tidak sengaja ke lempar sampai ke atap Memalukan Zzzzz play hear music watch tv study and have fun Like it like it Just play and have fun Hmmm di sekolah yang main lost saga cuma 2 orang ada lagi yang mau ikut Kalo ada banyak langsung bwt guild sendiri Oh Gila FBku kena virus kata kata bis dari jakarta kemarin dari JB pulang jam 1 2 days again I will go to Jakarta At Saturday I will watch Justin Bieber's Concert If you want to find me there I sit at VIP chair Happy Holiday all Check this out teman teman I'm in trouble but in the end I survive Lost Saga seru dan lucu hehehe CPU sudah dibetulin hahahaha seep download grand chase susahnya error terus pdahal internet nyala terus 12jam zzzzz Remix music with bassdrop is my favorite Poo iya orang mesti hack punyaku Emange orange yang ngehack g punya modal 2PM why many problems come to me am I the chosen one TT ID ROku dihack sama orang Pdhal sudah banyak ngecash aaaaaaaaaaaaaaaaahhhhhhhhhhhhhhhhhhhhhhhhhhhh So Fun I love to watch animax movie because it is COOL Baune kerbau minta ampoen I YUI Add Jefferson Utomo kenapa hahaha why can't I stop playing in ordinary days is this thing cause me to get a bad mark Abraham ojok ngehack FBku wew habis pulang dari rumahe chrisna bsk berkumpul lagi tertawa Aduh UTSnya pek sulit2 kabeh TT Down the distant road siapapun yang ngehack FBku akan dihajar kalau nemu oi bert ojok ngehack FBku buandotz iki ZZZZZZZZZZ bilang apa ae statuse iki play RO that can make me so happy and enjoy but I dont know why my GF worse than oh man Wew habis ngerjain UTS di rumah Chrisna sama albert mbe win s Chrisna main tekken jago pek semua dikalahno hebat2 Tsunami tsunami siapa mau berenang gratis ke Jepang kenapa Sad Mode i miss kamu very much Where are you now asam pek Papa mbe mama sama ae kalau blanja lama banget Kepingin ngamok pek Am I faded like a shadow i have to do something Pusing bis ditipu orang di game zzzzzz hilang 25 jt zeny AHHHH Don't Punk with My Heart I feel like a bird fly on the sky everytime I hear music Hari ini cape poll Is this Love </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh Jual Yeezy v2 cream white BNIB receipt Neo Soho Sz uk 8 5 Contact Line brianhaessel Wa 081219988008 jualyeezy adidasyeezy yeezyboost jualyeezywhite adidas yeezyboost350 yeezynesia yeezyjakarta jualyeezyboost topitem topshoes yeezyputih it New pin PS4 Apache jangan diterjemah dong ini harus download client ma patch Mobile Uploads i got free Gw Lagi main film Baju angie lucu iya i need Mobile Uploads FREE 520 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP like it FREE 450 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP FREE 450 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP 450 FB Points That you can use for everything Let your friends know that you've sent a free gift mau makan Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift mau nonton INCEPTION Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Inazuma 11 Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift help me Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift wkwkwkwwk Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift hhhhhhhhhhooooorrrrrrrrrr eee hahaha Click the cute pet below to own it now Don't forget to make a decent offer eeeeetttttttt aiaiaiai Can you be my neighbor oooooooooooooooooooooo wow money money and money a money money and money mami dapat ikan badut applefish i caught a crab oh nomor iget Please be my neighbor in FarmVille Please be my neighbor in FarmVille </t>
+  </si>
+  <si>
+    <t xml:space="preserve">telekinetik why not Hidup penuh dengan kebutaan VIRUS persetan bosen padahal sudah kelkom on the way   sedang di jalan solo Yeah back to jakarta back to solo in 7 days kembali ke asssalam ter cinta good bye jakarta T T persiapan fisik buat nanti malam now playing rf memories on the way   sedang di jalan bandung Just installed ChatSend that allows me to send files up to 2GB for free on Facebook chat Check it out virus nya kumat lagi Freak males belajar traktir sekelas langsung kopong tertawa solo jakarta 28jam on the way   sedang di jalan solo besok bisa ketemu kakak cihuyyy akhirnya libur juga huh akhirnya kepala saya enakan hidup BARCA beh 16 000 ajib 2 hari lagi reunian SD lumayan ke pulau tidung wkwkkwk pada ngerjain si Mochammad Fadhilah Nuris ampek menangis bikin ketawa D wkwkwkwkkw jadi kangen main pb lagi ini tangan saya makin lama makin kok bengkak iya beutiful girl aduh tangan saya bengkak tidak hilang hilang lagi pas main bola zzzzzzzzzzzz now playing bruno mars just the way you are ilill llili 4l4yerzzz pingin malam mingguan kemana iya D good night D I'm just ordinary people who just want to be loved and I was not perfect like you I was just a weak man without love love that you gave me that made me strong with the love that I live and I die that love can make me feel the taste of a lover's affection Oh her eyes her eyes Make the stars look like they're not shining Her hair her hair Falls perfectly without her trying She's so beautiful And I tell her every day ahk sialan ini yang ngebajak FB saya tidak jelas ini azzzzzzzzzzzzzzzzzzzzzz now playing kita selamanya kenapa TL di twitter tidak jalan iya parah saya dikerjaiin Muhammad Fadil Al Katiri lagi sialan ngeladenin bocah ngmong bikin saya tertawa tidak ada enak nya iya kalau orang yang kita cintai telah pergi jauh menainggal kan kita ahk blom online juga itu bocah online dong plisss saya pingi bicara ma kamu capek nya ngurusin bocah V V kemarin jepang kena tsunami sama gempa terus kabar miyabi nya bagaimana dong ini aiueo BABIbubebo cacicuceco kamu bukanlah hati yang tepat untukku tapi kamu pantas untuk yang lain yey akhirnya beli Hp juga Dalam kehidupan ini kita tidak dapat selalu melakukan hal yang besar Tetapi kita dapat melakukan banyak hal kecil dengan cinta yang besar In this life we cannot always do great things But we can do small things with great love Jika Anda menginginkan sesuatu yang belum pernah anda miliki Anda harus bersedia melakukan sesuatu yang belum pernah Anda lakukan If you want something you ve never had you must be willing to do something you ve never done yuhu besok terakih pekan ulangan tapi hari senennya uts lagi iya allah belajar saja susah amat perasaan mengeluh rabut ci tipisin lagi sama ayah bangke semoga nilai ulangan rata 9 atau tidak dia atas kkm semua aminn malesss banget tidak da yang seru diajak chat DEWA sepi nya malam ini ramai dikit dong besok sudah tidak bisa online lagi hiks hiks ' why you go to me Hard to find a way to get through It's a tragedy Pulling at me like the stars do You're like gravity Even if the wind blows It makes it hard to believe How iya gonna love How iya gonna feel How you gonna live your life like the dream you have is real And If you lost your way I will keep you safe We'll open up all the world inside I see it come alive tonight I will keep you safe Doesn't even matter to you To see w ini lagu rada rada rokest kata tidak boleh teman makan teman jadi bingung saya maksudnya bagaimana flying without wings sepiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii i want to have i nice dream tolong saya kelaparaannn all besok di sekolahan ada badminton tidak I just waiting pingin bakar jagung tapi paling enak bareng mas mas di jawa kapan mau ke jakarta mas ganang wildan safiq mada dan saudara yang lain tertawa melihat vidio lagu tenteng sebuah nama wakkakakkakakkakakakakkaka we will not go down teman saya kasian amat sudah di dua in terus di huh anget anjing bikin penasaran ini anak dua huahhhhhhhhhhhj next month capek banget habis arcici have a nice dream all good night I love you my heart 4 ever I can I need love to much Terkadang Tuhan mempertemukan kamu dengan beberapa orang yang tak tepat agar kamu dapat bersyukur ketika bertemu orang yang tepat i waiting you sempurna sempurna ahk sakit nya behh ajib ui anak kelas 8 bikin grup someone's dong she is so beutiful ahahahahhaha lagu yang lumayan melembut kan hati yang terluka hehehe huh belum puas sama diri sendiri pada kenapa sih ini anak kelas tujuh aku yang lemah tanpa mu aku yang khilaf tanpamu cinta yang kamu berikan begitu besar bagiku sepi banget pagi begini yah hari ini hari penuh berkah dimana sekarang hari labir nabi kita muhammad SAW i wonder who and i wonder why pergi ke monas bareng teman teman seru cuyyyyyyyyyyy apa lagi si srek nye kawokawokaowkawokawokawokoawkoawkoawkoawkokwoakoakwo ketawa melihat srek jatuh celana nye bolong pula awkowkoakwokawokawokawokawokawokawo kenape besok tidak libur aje sih to all good night have a nice day tomorow persiapan besok jalan jalan bareng hafidz gamal srek rafki firli emir abdrogba sepi banged malam ini Aku yang lemah tanpamu Aku yang rentan karena Cinta yang tlah hilang darimu Yang mampu menyanjungku Selama mata terbuka Sampai jantung tak berdetak Selama itu pun Aku mampu tuk mengenangmu Darimu Kutemukan hidupku Bagiku Kau lah cinta sejati ku pada saat itu bukan saat ini for kamu and me aduh lapar com kenapa ye saya ini sakit atau sudah ajal saya ye kalau sakit kok bahkan tidak sembuh sembuh kloudah ajal knape tidak mati mati iya tapi mudah mudahan mati sahid aminnnnnnnnnnnnnnnnnnnnnnnnnnnn sepi iya siang siang begini bismillahhirrohmannirrohim iya allah mudah mudahan hari ini adalah hari yang baik amin menyedih kan sekali hari ini mudah mudahan besok menjadi hari yang lebih baik aaaaaaminnnnnnnnnnnnnnnnnnnnnnnnnn behh ujan molo jadi tidak bisa ngeringin sepatu saya lagi benar benar kesialan hah dia hanya masa lalu bukan masa depan ku masa depan ku pasti lebih cerah malam malam begini enaknya sedang apa iya bon jovi it's my life ribet nya orang orang ini huaaaaaaaaaaaaaaaaaah malam sepi ini my samurai aduh dikejar anjing mana jatoh lagi sial lihat aje itu anjing ajal mu sudah dekat njing good night all I want to sleep hoaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaammmmmmmmmmmmmmmmmmmmmmmmmmmmmmm hoaaaaaaaaaaaaaammmmmmmmmmmmmmmmmmmmmmmmm malam malam enak nya ngapian iya tidur apa begadang ini bingung ahk bosen ini tidak da yang online weqs sepi amad perasaan ini tidak ada yang bisa diajak chat astagfirulloh agin malam benar benar dingin emoticon facebook smile frown tongue P grin D gasp O wink glasses 8 sunglasses 8 grumpy unsure cry ' devil 3 angel O kiss heart 3 kiki squint confused o O upset O pacman v curly lips 3 robot Chris Putnam putnam Shark Penguin hujan pembuat sial pagi pagi pale puyeng shit fuck good night all Faqih Chaerul Rachman anjing kamu ye ribut kamu sene tod enaknya masuk jam 9 ngak boleh olahraga dua minggu pusing happy birthday kakak sarah yay owwwwwwwwwww yay peperangan telah selesai slamat siang dunia gilalo mir yay hoho hmmmmmm tertawa hmmmmmmm mesti belajar habis habisan sebentar lagi perang sama buku tulis ma pensil grrrrrr wow yay Hi all my frieds I just wanna introduce a kind of American Football at Florida State University to you all My Dad and Mom are very happy to watch this video to enjoy their previous study at graduate program ata </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +497,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -286,6 +544,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,16 +854,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="159" customWidth="1"/>
   </cols>
   <sheetData>
@@ -613,7 +878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1.02084967776092E+16</v>
       </c>
@@ -932,7 +1197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>108152746435673</v>
       </c>
@@ -987,8 +1252,460 @@
         <v>67</v>
       </c>
     </row>
+    <row r="36" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>1.02103312393397E+16</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1357219091028340</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>1.02069874632846E+16</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>1.02134517511523E+16</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>465079827171159</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>2110354235646890</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>1.01552980934163E+16</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>1163935713712990</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>1457917717563260</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>1360716674016200</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>1943117612600890</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>1.02087985644214E+16</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>1.02098377519691E+16</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>1.02093544692382E+16</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>1.02095049188757E+16</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>1440698202640690</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>1435002576559350</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>1711262692223430</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>1443459105674990</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>1770467019635090</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>1882983061919320</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>1.02033259701875E+16</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>1.02096458777252E+16</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>1336085826498680</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>381700002231380</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>1662936723746930</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>1.02096573370991E+16</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>1522703281081240</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>1700772203273890</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>1009323859204590</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>1377408809009750</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>1516256621779680</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>1485465054838930</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>1488270041245150</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>1.01548411845644E+16</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>1530212696991970</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>1395089483905200</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>1327834690646130</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>1477063715647040</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>1.02069403765479E+16</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>1754618417886780</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
